--- a/tests/test1/d20/N, 0.2.xlsx
+++ b/tests/test1/d20/N, 0.2.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003166999999990594</v>
+        <v>0.0003117000000045778</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0004349000000019032</v>
+        <v>0.0003225999999969531</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003145000000017717</v>
+        <v>0.0002880999999987921</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0002986000000007039</v>
+        <v>0.001170399999999461</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0002998000000005163</v>
+        <v>0.0003181000000012091</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003236000000015338</v>
+        <v>0.0002896000000021104</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003041999999950917</v>
+        <v>0.0003018999999966354</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0002878999999964549</v>
+        <v>0.0003237000000027024</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003330999999988649</v>
+        <v>0.0003035000000011223</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0002970000000033224</v>
+        <v>0.0002841999999958489</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0002899000000056162</v>
+        <v>0.0003169000000013966</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003023000000013099</v>
+        <v>0.0003420999999974583</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003099999999989222</v>
+        <v>0.0003262999999975591</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003109000000023343</v>
+        <v>0.000328699999997184</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0009828999999967891</v>
+        <v>0.0003209999999995716</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.000392800000000193</v>
+        <v>0.0003106999999999971</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003343000000057827</v>
+        <v>0.0003278000000008774</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003080999999980349</v>
+        <v>0.0003018000000025722</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003311999999979776</v>
+        <v>0.0003117999999986409</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003069999999993911</v>
+        <v>0.0003225999999969531</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003224999999957845</v>
+        <v>0.0003385000000051264</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.000495100000001969</v>
+        <v>0.0003195999999974219</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003308000000004085</v>
+        <v>0.0003105000000047653</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003105999999988285</v>
+        <v>0.000316800000000228</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003262999999975591</v>
+        <v>0.0003084000000015408</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002990000000053783</v>
+        <v>0.0003250999999977466</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0002893999999997732</v>
+        <v>0.0002806999999975801</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003106999999999971</v>
+        <v>0.0002939999999966858</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003112000000058401</v>
+        <v>0.0003142999999994345</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.000309799999996585</v>
+        <v>0.0002926999999957047</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0005592999999990411</v>
+        <v>0.0002914999999958923</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003075999999992973</v>
+        <v>0.0005517999999966605</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.000308499999995604</v>
+        <v>0.0003075999999992973</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0002944000000013602</v>
+        <v>0.000298299999997198</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003116999999974723</v>
+        <v>0.0008173999999954162</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003278000000008774</v>
+        <v>0.0003077000000004659</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003847999999990748</v>
+        <v>0.0002957000000023413</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003248000000013462</v>
+        <v>0.0002925000000004729</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.000296999999996217</v>
+        <v>0.0003095999999942478</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0002937000000002854</v>
+        <v>0.0002842000000029543</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0005470000000045161</v>
+        <v>0.0003020999999989726</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003236000000015338</v>
+        <v>0.0003079999999968663</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002914000000018291</v>
+        <v>0.0002971999999985542</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003004000000004226</v>
+        <v>0.0003139000000018655</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003226000000040585</v>
+        <v>0.0009483999999986281</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003096000000013532</v>
+        <v>0.0003159999999979846</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003050000000044406</v>
+        <v>0.0002986000000007039</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0008266000000034524</v>
+        <v>0.0003002999999992539</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003103999999964913</v>
+        <v>0.0003144999999946663</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.00031219999999621</v>
+        <v>0.0002953000000047723</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002917999999993981</v>
+        <v>0.0003504000000020824</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003311999999979776</v>
+        <v>0.0003275999999985402</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003280999999972778</v>
+        <v>0.0002943000000001916</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003266000000010649</v>
+        <v>0.0002887999999998669</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003255999999964843</v>
+        <v>0.0003199000000009278</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003038999999986913</v>
+        <v>0.0003025999999977103</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002989999999982729</v>
+        <v>0.0002992000000006101</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0005608000000023594</v>
+        <v>0.0002850999999992609</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003200000000020964</v>
+        <v>0.0003123999999985472</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003275999999985402</v>
+        <v>0.0002884999999963611</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003345000000010145</v>
+        <v>0.0002872999999965486</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003285000000019522</v>
+        <v>0.0005554000000032033</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.00028930000000571</v>
+        <v>0.0003221999999993841</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003333000000012021</v>
+        <v>0.00029750000000206</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0005477000000055909</v>
+        <v>0.0002895000000009418</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003257999999988215</v>
+        <v>0.0003193000000010215</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003037999999975227</v>
+        <v>0.000301099999994392</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003050000000044406</v>
+        <v>0.0002935000000050536</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003126000000008844</v>
+        <v>0.0003165999999978908</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002892000000045414</v>
+        <v>0.0002957000000023413</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003129999999984534</v>
+        <v>0.0002828000000008046</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003192999999939161</v>
+        <v>0.0002944999999954234</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003095000000001846</v>
+        <v>0.0003184999999987781</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0002889999999950987</v>
+        <v>0.0002801999999988425</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0002885000000034665</v>
+        <v>0.0002996999999993477</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003241000000002714</v>
+        <v>0.0003118999999998096</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.000294599999996592</v>
+        <v>0.0002962000000010789</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003020999999989726</v>
+        <v>0.0003048999999961666</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003157000000015842</v>
+        <v>0.0006036999999992076</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003062999999983163</v>
+        <v>0.0003077000000004659</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003035999999951855</v>
+        <v>0.0002874999999988859</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003023000000013099</v>
+        <v>0.0002884999999963611</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003264999999998963</v>
+        <v>0.0003110999999975661</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002922000000040725</v>
+        <v>0.0002905999999995856</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003193000000010215</v>
+        <v>0.000293299999995611</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003110000000035029</v>
+        <v>0.0003098000000036905</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003129999999984534</v>
+        <v>0.000289199999997436</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002835000000018795</v>
+        <v>0.0002813000000045918</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.000653699999993762</v>
+        <v>0.0008409000000000333</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003187000000011153</v>
+        <v>0.0003230999999956907</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003187000000011153</v>
+        <v>0.0002989999999982729</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003029999999952793</v>
+        <v>0.0003021000000060781</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003172000000049024</v>
+        <v>0.0003132000000007906</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003057999999995786</v>
+        <v>0.0002868000000049165</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003050000000044406</v>
+        <v>0.000293400000003885</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0004976000000027625</v>
+        <v>0.0003290000000006899</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003185999999999467</v>
+        <v>0.000313099999999622</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002988000000030411</v>
+        <v>0.0002890999999962673</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002955000000071095</v>
+        <v>0.0002981999999960294</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003109000000023343</v>
+        <v>0.0003072000000017283</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d20/N, 0.2.xlsx
+++ b/tests/test1/d20/N, 0.2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003117000000045778</v>
+        <v>0.0003759999999886077</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003225999999969531</v>
+        <v>0.0002968999999950483</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0002880999999987921</v>
+        <v>0.00043480000000784</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.001170399999999461</v>
+        <v>0.000304900000003272</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003181000000012091</v>
+        <v>0.0003146999999898981</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0002896000000021104</v>
+        <v>0.0003018000000025722</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003018999999966354</v>
+        <v>0.0003267999999962967</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003237000000027024</v>
+        <v>0.0003035000000011223</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003035000000011223</v>
+        <v>0.0003058000000066841</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0002841999999958489</v>
+        <v>0.0003191999999927475</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003169000000013966</v>
+        <v>0.0005723999999958096</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003420999999974583</v>
+        <v>0.0003980999999981805</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003262999999975591</v>
+        <v>0.0003480999999965206</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.000328699999997184</v>
+        <v>0.0003463999999979706</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003209999999995716</v>
+        <v>0.001004300000005287</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003106999999999971</v>
+        <v>0.0003143999999934977</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003278000000008774</v>
+        <v>0.0003413999999963835</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003018000000025722</v>
+        <v>0.0005434000000121841</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003117999999986409</v>
+        <v>0.0005185999999923752</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003225999999969531</v>
+        <v>0.000361600000005069</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003385000000051264</v>
+        <v>0.0002968000000009852</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003195999999974219</v>
+        <v>0.0002956000000011727</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003105000000047653</v>
+        <v>0.0006256000000064432</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.000316800000000228</v>
+        <v>0.0003255000000024211</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003084000000015408</v>
+        <v>0.0002905999999995856</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003250999999977466</v>
+        <v>0.0002934999999979482</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0002806999999975801</v>
+        <v>0.0003284000000007836</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0002939999999966858</v>
+        <v>0.0002903000000031852</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003142999999994345</v>
+        <v>0.0003646000000117056</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0002926999999957047</v>
+        <v>0.0003226999999981217</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0002914999999958923</v>
+        <v>0.0003090999999955102</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0005517999999966605</v>
+        <v>0.0003056000000043468</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003075999999992973</v>
+        <v>0.0003446999999994205</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.000298299999997198</v>
+        <v>0.0003144000000077085</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0008173999999954162</v>
+        <v>0.0002917999999993981</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003077000000004659</v>
+        <v>0.0003226999999981217</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0002957000000023413</v>
+        <v>0.0003147999999981721</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0002925000000004729</v>
+        <v>0.0003638999999964199</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003095999999942478</v>
+        <v>0.0003095000000001846</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0002842000000029543</v>
+        <v>0.0003154000000051838</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003020999999989726</v>
+        <v>0.0003073999999969601</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003079999999968663</v>
+        <v>0.0003001000000040221</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002971999999985542</v>
+        <v>0.0003998999999907937</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003139000000018655</v>
+        <v>0.0003135000000042965</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0009483999999986281</v>
+        <v>0.0003075999999992973</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003159999999979846</v>
+        <v>0.0002988000000101465</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002986000000007039</v>
+        <v>0.0003117999999915355</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003002999999992539</v>
+        <v>0.0002965000000045848</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003144999999946663</v>
+        <v>0.000300699999996823</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0002953000000047723</v>
+        <v>0.0003446000000053573</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003504000000020824</v>
+        <v>0.0003178999999988719</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003275999999985402</v>
+        <v>0.0002918999999934613</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002943000000001916</v>
+        <v>0.00131659999999556</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0002887999999998669</v>
+        <v>0.0003191999999927475</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003199000000009278</v>
+        <v>0.0003001999999980853</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003025999999977103</v>
+        <v>0.0002938000000085594</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002992000000006101</v>
+        <v>0.0003481000000107315</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002850999999992609</v>
+        <v>0.0002968999999950483</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003123999999985472</v>
+        <v>0.0003027000000059843</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002884999999963611</v>
+        <v>0.000644400000012979</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0002872999999965486</v>
+        <v>0.0003281000000043832</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0005554000000032033</v>
+        <v>0.0002980000000007976</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003221999999993841</v>
+        <v>0.0003103000000095335</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.00029750000000206</v>
+        <v>0.0003178000000048087</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0002895000000009418</v>
+        <v>0.0003033999999928483</v>
       </c>
     </row>
     <row r="67">
@@ -3918,7 +3918,7 @@
         <v>46.67551713319669</v>
       </c>
       <c r="H67" t="n">
-        <v>2.585659681729037</v>
+        <v>2.585659681729038</v>
       </c>
       <c r="I67" t="n">
         <v>10.3312492425286</v>
@@ -3936,7 +3936,7 @@
         <v>0.04245684101062078</v>
       </c>
       <c r="N67" t="n">
-        <v>0.8955694919886275</v>
+        <v>0.8955694919886271</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003193000000010215</v>
+        <v>0.0003068999999982225</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.000301099999994392</v>
+        <v>0.0003234999999932597</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0002935000000050536</v>
+        <v>0.0003112999999927979</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003165999999978908</v>
+        <v>0.000300699999996823</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002957000000023413</v>
+        <v>0.0006337000000087301</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0002828000000008046</v>
+        <v>0.0003044999999985976</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0002944999999954234</v>
+        <v>0.0002972000000056596</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003184999999987781</v>
+        <v>0.0003449000000017577</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0002801999999988425</v>
+        <v>0.0003336999999987711</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0002996999999993477</v>
+        <v>0.0003109000000023343</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003118999999998096</v>
+        <v>0.0002975999999961232</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0002962000000010789</v>
+        <v>0.0003235000000074706</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003048999999961666</v>
+        <v>0.0002922999999981357</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0006036999999992076</v>
+        <v>0.000290200000009122</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003077000000004659</v>
+        <v>0.0003066999999958853</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002874999999988859</v>
+        <v>0.0003226000000040585</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0002884999999963611</v>
+        <v>0.0002951999999964983</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003110999999975661</v>
+        <v>0.00031219999999621</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002905999999995856</v>
+        <v>0.0003170000000096707</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.000293299999995611</v>
+        <v>0.0003039999999998599</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003098000000036905</v>
+        <v>0.0003092999999978474</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.000289199999997436</v>
+        <v>0.0003226999999981217</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002813000000045918</v>
+        <v>0.0003072000000088337</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0008409000000000333</v>
+        <v>0.0003028999999941107</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003230999999956907</v>
+        <v>0.0003106000000059339</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002989999999982729</v>
+        <v>0.000321299999995972</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003021000000060781</v>
+        <v>0.0003023000000013099</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003132000000007906</v>
+        <v>0.0002960000000058471</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0002868000000049165</v>
+        <v>0.0003170000000096707</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.000293400000003885</v>
+        <v>0.000320500000000834</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003290000000006899</v>
+        <v>0.0002960999999999103</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.000313099999999622</v>
+        <v>0.0003451999999981581</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002890999999962673</v>
+        <v>0.00029750000000206</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002981999999960294</v>
+        <v>0.0002915999999970609</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003072000000017283</v>
+        <v>0.0002918999999934613</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d20/N, 0.2.xlsx
+++ b/tests/test1/d20/N, 0.2.xlsx
@@ -532,13 +532,13 @@
         <v>359.6471895308065</v>
       </c>
       <c r="F2" t="n">
-        <v>20.22116272949141</v>
+        <v>20.22116272948451</v>
       </c>
       <c r="G2" t="n">
-        <v>96.92882668395525</v>
+        <v>96.92882668395454</v>
       </c>
       <c r="H2" t="n">
-        <v>12.12415989402796</v>
+        <v>12.12415989402261</v>
       </c>
       <c r="I2" t="n">
         <v>44.32671026784765</v>
@@ -547,16 +547,16 @@
         <v>21.33251976353872</v>
       </c>
       <c r="K2" t="n">
-        <v>44.34072988566081</v>
+        <v>44.34072988565988</v>
       </c>
       <c r="L2" t="n">
-        <v>22.16074864002805</v>
+        <v>22.16074864001938</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04917625231349566</v>
+        <v>0.0491762523135315</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2316177028769238</v>
+        <v>0.2316177028748752</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003759999999886077</v>
+        <v>0.0002323000000217235</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.6751309272673</v>
       </c>
       <c r="F3" t="n">
-        <v>19.66758327841762</v>
+        <v>19.6675832784216</v>
       </c>
       <c r="G3" t="n">
-        <v>73.23921804056546</v>
+        <v>73.23921804056693</v>
       </c>
       <c r="H3" t="n">
-        <v>11.92595984829171</v>
+        <v>11.92595984829474</v>
       </c>
       <c r="I3" t="n">
         <v>34.95824278912326</v>
@@ -599,16 +599,16 @@
         <v>25.60484930330038</v>
       </c>
       <c r="K3" t="n">
-        <v>34.87852268133474</v>
+        <v>34.8785226813353</v>
       </c>
       <c r="L3" t="n">
-        <v>25.8151807044151</v>
+        <v>25.81518070442098</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05015283726185362</v>
+        <v>0.05015283726183036</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1398003647698541</v>
+        <v>0.1398003647707086</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0002968999999950483</v>
+        <v>0.0002472000000182106</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.08335156948109022</v>
       </c>
       <c r="F4" t="n">
-        <v>19.78386788703957</v>
+        <v>19.78386788703879</v>
       </c>
       <c r="G4" t="n">
-        <v>85.43238933214852</v>
+        <v>85.43238933215341</v>
       </c>
       <c r="H4" t="n">
-        <v>3.047926447854463</v>
+        <v>3.047926447854132</v>
       </c>
       <c r="I4" t="n">
         <v>15.56656275893635</v>
@@ -651,16 +651,16 @@
         <v>18.86935545809921</v>
       </c>
       <c r="K4" t="n">
-        <v>15.51033068075596</v>
+        <v>15.51033068075577</v>
       </c>
       <c r="L4" t="n">
-        <v>18.11859023231465</v>
+        <v>18.11859023231347</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04333692353484008</v>
+        <v>0.04333692353484475</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4529190628068728</v>
+        <v>0.4529190628073994</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.00043480000000784</v>
+        <v>0.0001942000000099142</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.6422743053139</v>
       </c>
       <c r="F5" t="n">
-        <v>20.03357391840925</v>
+        <v>20.03357391841189</v>
       </c>
       <c r="G5" t="n">
-        <v>97.15756903831316</v>
+        <v>97.15756903831367</v>
       </c>
       <c r="H5" t="n">
-        <v>11.88876374777783</v>
+        <v>11.88876374777983</v>
       </c>
       <c r="I5" t="n">
         <v>44.23827129596256</v>
@@ -703,16 +703,16 @@
         <v>21.20345840520746</v>
       </c>
       <c r="K5" t="n">
-        <v>44.1853571413359</v>
+        <v>44.18535714133628</v>
       </c>
       <c r="L5" t="n">
-        <v>21.8093431141131</v>
+        <v>21.80934311411632</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05720663013821152</v>
+        <v>0.05720663013819497</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1955188067913892</v>
+        <v>0.1955188067919716</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.000304900000003272</v>
+        <v>0.0001853999999923417</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9898876585714</v>
       </c>
       <c r="F6" t="n">
-        <v>19.83772997717628</v>
+        <v>19.83772997717749</v>
       </c>
       <c r="G6" t="n">
-        <v>174.2849109493679</v>
+        <v>174.2849109493668</v>
       </c>
       <c r="H6" t="n">
-        <v>9.512191690925311</v>
+        <v>9.512191690925915</v>
       </c>
       <c r="I6" t="n">
         <v>21.56436866719725</v>
@@ -755,16 +755,16 @@
         <v>6.41396481681925</v>
       </c>
       <c r="K6" t="n">
-        <v>21.44887306414375</v>
+        <v>21.44887306414452</v>
       </c>
       <c r="L6" t="n">
-        <v>6.299770350078598</v>
+        <v>6.29977035007918</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03825213988602954</v>
+        <v>0.03825213988601972</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07830267869735778</v>
+        <v>0.07830267869683064</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003146999999898981</v>
+        <v>0.0001854999999864049</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.911754502623</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56252737297023</v>
+        <v>19.56252737296817</v>
       </c>
       <c r="G7" t="n">
-        <v>39.57409662257859</v>
+        <v>39.57409662257752</v>
       </c>
       <c r="H7" t="n">
-        <v>13.31490861621982</v>
+        <v>13.3149086162182</v>
       </c>
       <c r="I7" t="n">
         <v>21.19065735311351</v>
@@ -807,16 +807,16 @@
         <v>31.91172483743855</v>
       </c>
       <c r="K7" t="n">
-        <v>21.14806639664237</v>
+        <v>21.1480663966421</v>
       </c>
       <c r="L7" t="n">
-        <v>31.37498890282814</v>
+        <v>31.37498890282446</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03998034600471762</v>
+        <v>0.0399803460047262</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07318374644186559</v>
+        <v>0.0731837464424497</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003018000000025722</v>
+        <v>0.0002038000000084139</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.0623567346975076</v>
       </c>
       <c r="F8" t="n">
-        <v>19.69122692381007</v>
+        <v>19.69122692381021</v>
       </c>
       <c r="G8" t="n">
-        <v>162.2113679913606</v>
+        <v>162.2113679913598</v>
       </c>
       <c r="H8" t="n">
-        <v>6.994279382913561</v>
+        <v>6.994279382913516</v>
       </c>
       <c r="I8" t="n">
         <v>22.57367986124408</v>
@@ -859,16 +859,16 @@
         <v>10.25939500470955</v>
       </c>
       <c r="K8" t="n">
-        <v>22.46629842863</v>
+        <v>22.46629842863003</v>
       </c>
       <c r="L8" t="n">
-        <v>9.828967837932455</v>
+        <v>9.828967837932703</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03807726026007924</v>
+        <v>0.03807726026007826</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1379494386889986</v>
+        <v>0.137949438688915</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003267999999962967</v>
+        <v>0.0002416000000096119</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.66189485924</v>
       </c>
       <c r="F9" t="n">
-        <v>18.43795587125302</v>
+        <v>18.43795587125267</v>
       </c>
       <c r="G9" t="n">
-        <v>12.64264413246482</v>
+        <v>12.64264413246454</v>
       </c>
       <c r="H9" t="n">
-        <v>13.81921463147584</v>
+        <v>13.81921463147586</v>
       </c>
       <c r="I9" t="n">
         <v>8.395584447363737</v>
@@ -911,16 +911,16 @@
         <v>32.13470811956061</v>
       </c>
       <c r="K9" t="n">
-        <v>8.339532583067424</v>
+        <v>8.339532583067372</v>
       </c>
       <c r="L9" t="n">
-        <v>32.34426916897485</v>
+        <v>32.34426916897452</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05107139867939257</v>
+        <v>0.05107139867939363</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3475720333160662</v>
+        <v>0.3475720333160734</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003035000000011223</v>
+        <v>0.0001853999999923417</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.981759056676</v>
       </c>
       <c r="F10" t="n">
-        <v>19.58520248968273</v>
+        <v>19.58520248970382</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3086292999383</v>
+        <v>157.3086292999305</v>
       </c>
       <c r="H10" t="n">
-        <v>14.25519863384751</v>
+        <v>14.25519863386624</v>
       </c>
       <c r="I10" t="n">
         <v>81.3927713553782</v>
@@ -963,16 +963,16 @@
         <v>8.056033186416919</v>
       </c>
       <c r="K10" t="n">
-        <v>81.30904760408362</v>
+        <v>81.30904760408642</v>
       </c>
       <c r="L10" t="n">
-        <v>7.853417625098711</v>
+        <v>7.8534176251096</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04543727948981174</v>
+        <v>0.04543727948969337</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1279276184214151</v>
+        <v>0.1279276184150618</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003058000000066841</v>
+        <v>0.0001826999999821055</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9997782890575</v>
       </c>
       <c r="F11" t="n">
-        <v>19.84997979934532</v>
+        <v>19.84997979934512</v>
       </c>
       <c r="G11" t="n">
-        <v>1.540480547899088</v>
+        <v>1.540480547898884</v>
       </c>
       <c r="H11" t="n">
-        <v>8.403152549292926</v>
+        <v>8.403152549292773</v>
       </c>
       <c r="I11" t="n">
         <v>3.091364150809967</v>
@@ -1015,16 +1015,16 @@
         <v>28.24598523429134</v>
       </c>
       <c r="K11" t="n">
-        <v>3.02093702615802</v>
+        <v>3.020937026157969</v>
       </c>
       <c r="L11" t="n">
-        <v>27.35176546959743</v>
+        <v>27.35176546959704</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04282372920645315</v>
+        <v>0.0428237292064543</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2501529524981146</v>
+        <v>0.2501529524981921</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003191999999927475</v>
+        <v>0.0001846000000114145</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.7336826991741</v>
       </c>
       <c r="F12" t="n">
-        <v>19.68005186834657</v>
+        <v>19.6800518683466</v>
       </c>
       <c r="G12" t="n">
-        <v>123.8701330965647</v>
+        <v>123.870133096568</v>
       </c>
       <c r="H12" t="n">
-        <v>2.862042862277972</v>
+        <v>2.862042862278038</v>
       </c>
       <c r="I12" t="n">
         <v>14.50009772114043</v>
@@ -1067,16 +1067,16 @@
         <v>14.92377511516745</v>
       </c>
       <c r="K12" t="n">
-        <v>14.54504500897339</v>
+        <v>14.5450450089734</v>
       </c>
       <c r="L12" t="n">
-        <v>15.65102202153107</v>
+        <v>15.65102202153088</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04285306734637307</v>
+        <v>0.04285306734637315</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7644111310409667</v>
+        <v>0.764411131040819</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0005723999999958096</v>
+        <v>0.000202999999999065</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.650109051739</v>
       </c>
       <c r="F13" t="n">
-        <v>18.74083412957275</v>
+        <v>18.74083412957304</v>
       </c>
       <c r="G13" t="n">
-        <v>23.19424608528876</v>
+        <v>23.19424608529056</v>
       </c>
       <c r="H13" t="n">
-        <v>4.921983408310771</v>
+        <v>4.921983408310371</v>
       </c>
       <c r="I13" t="n">
         <v>8.947316066673613</v>
@@ -1119,16 +1119,16 @@
         <v>20.91271227320319</v>
       </c>
       <c r="K13" t="n">
-        <v>8.918438389942784</v>
+        <v>8.918438389942821</v>
       </c>
       <c r="L13" t="n">
-        <v>21.81688404959364</v>
+        <v>21.81688404959341</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05320192627508495</v>
+        <v>0.05320192627508489</v>
       </c>
       <c r="N13" t="n">
-        <v>1.615858393997181</v>
+        <v>1.615858393996801</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003980999999981805</v>
+        <v>0.0002460999999982505</v>
       </c>
     </row>
     <row r="14">
@@ -1156,10 +1156,10 @@
         <v>359.905402833702</v>
       </c>
       <c r="F14" t="n">
-        <v>19.59236412628257</v>
+        <v>19.59236412628263</v>
       </c>
       <c r="G14" t="n">
-        <v>27.11105486731902</v>
+        <v>27.11105486731911</v>
       </c>
       <c r="H14" t="n">
         <v>12.13400984119117</v>
@@ -1171,16 +1171,16 @@
         <v>31.00025388231675</v>
       </c>
       <c r="K14" t="n">
-        <v>14.55649021829776</v>
+        <v>14.55649021829778</v>
       </c>
       <c r="L14" t="n">
-        <v>30.9297514353593</v>
+        <v>30.92975143535935</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04272269255093827</v>
+        <v>0.04272269255093816</v>
       </c>
       <c r="N14" t="n">
-        <v>0.08119070469545002</v>
+        <v>0.08119070469543756</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003480999999965206</v>
+        <v>0.0001893000000166012</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.1424781324101231</v>
       </c>
       <c r="F15" t="n">
-        <v>19.61946079401532</v>
+        <v>19.61946079401693</v>
       </c>
       <c r="G15" t="n">
-        <v>143.3834414863943</v>
+        <v>143.3834414863921</v>
       </c>
       <c r="H15" t="n">
-        <v>5.810244751119371</v>
+        <v>5.810244751119999</v>
       </c>
       <c r="I15" t="n">
         <v>25.33499649909478</v>
@@ -1223,16 +1223,16 @@
         <v>13.2842839938443</v>
       </c>
       <c r="K15" t="n">
-        <v>25.24234532729889</v>
+        <v>25.24234532729939</v>
       </c>
       <c r="L15" t="n">
-        <v>12.61095315319907</v>
+        <v>12.61095315320041</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03781010371415196</v>
+        <v>0.03781010371414305</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2097644567519956</v>
+        <v>0.2097644567513767</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003463999999979706</v>
+        <v>0.0001855000000148266</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.6897321777494</v>
       </c>
       <c r="F16" t="n">
-        <v>19.95628743302939</v>
+        <v>19.95628743303116</v>
       </c>
       <c r="G16" t="n">
-        <v>90.68889425441135</v>
+        <v>90.68889425441263</v>
       </c>
       <c r="H16" t="n">
-        <v>12.66328600935847</v>
+        <v>12.66328600935974</v>
       </c>
       <c r="I16" t="n">
         <v>43.51026779230099</v>
@@ -1275,16 +1275,16 @@
         <v>23.0795266139911</v>
       </c>
       <c r="K16" t="n">
-        <v>43.45764928047513</v>
+        <v>43.45764928047547</v>
       </c>
       <c r="L16" t="n">
-        <v>23.63594311582329</v>
+        <v>23.63594311582537</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05340124700698042</v>
+        <v>0.05340124700697103</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1773129729047506</v>
+        <v>0.1773129729050443</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.001004300000005287</v>
+        <v>0.0002292000000068128</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.06246569630870719</v>
       </c>
       <c r="F17" t="n">
-        <v>19.7163600083774</v>
+        <v>19.71636000837731</v>
       </c>
       <c r="G17" t="n">
-        <v>154.8074264423358</v>
+        <v>154.8074264423371</v>
       </c>
       <c r="H17" t="n">
-        <v>5.173207931910336</v>
+        <v>5.173207931910424</v>
       </c>
       <c r="I17" t="n">
         <v>18.56949776560077</v>
@@ -1330,13 +1330,13 @@
         <v>18.46573928487683</v>
       </c>
       <c r="L17" t="n">
-        <v>12.10590724217246</v>
+        <v>12.1059072421722</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04121966638273415</v>
+        <v>0.04121966638273511</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1475325087063176</v>
+        <v>0.1475325087064288</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003143999999934977</v>
+        <v>0.0002993999999887365</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9744102557732</v>
       </c>
       <c r="F18" t="n">
-        <v>19.37951291117397</v>
+        <v>19.37951291117238</v>
       </c>
       <c r="G18" t="n">
-        <v>39.90264841742792</v>
+        <v>39.90264841742761</v>
       </c>
       <c r="H18" t="n">
-        <v>8.912258438978823</v>
+        <v>8.912258438977606</v>
       </c>
       <c r="I18" t="n">
         <v>17.88767679762028</v>
@@ -1379,16 +1379,16 @@
         <v>27.2033509828832</v>
       </c>
       <c r="K18" t="n">
-        <v>17.81274712333389</v>
+        <v>17.81274712333364</v>
       </c>
       <c r="L18" t="n">
-        <v>26.22461261893825</v>
+        <v>26.2246126189354</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03495793640906508</v>
+        <v>0.03495793640907164</v>
       </c>
       <c r="N18" t="n">
-        <v>0.184480816779935</v>
+        <v>0.1844808167805085</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003413999999963835</v>
+        <v>0.000239899999996851</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.9447468219957</v>
       </c>
       <c r="F19" t="n">
-        <v>19.48294848673924</v>
+        <v>19.4829484867407</v>
       </c>
       <c r="G19" t="n">
-        <v>52.32123616760765</v>
+        <v>52.32123616760681</v>
       </c>
       <c r="H19" t="n">
-        <v>9.200973734805981</v>
+        <v>9.200973734807318</v>
       </c>
       <c r="I19" t="n">
         <v>22.80758777377703</v>
@@ -1431,16 +1431,16 @@
         <v>26.18982127859822</v>
       </c>
       <c r="K19" t="n">
-        <v>22.72415752501973</v>
+        <v>22.72415752501992</v>
       </c>
       <c r="L19" t="n">
-        <v>25.60271472353675</v>
+        <v>25.60271472353957</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04235077846196419</v>
+        <v>0.04235077846195626</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1205036800803748</v>
+        <v>0.1205036800798094</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0005434000000121841</v>
+        <v>0.0001868999999885546</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9841143112387</v>
       </c>
       <c r="F20" t="n">
-        <v>19.62587650601174</v>
+        <v>19.6258765060091</v>
       </c>
       <c r="G20" t="n">
-        <v>117.1968078600169</v>
+        <v>117.1968078600185</v>
       </c>
       <c r="H20" t="n">
-        <v>8.842915411694227</v>
+        <v>8.842915411692562</v>
       </c>
       <c r="I20" t="n">
         <v>41.12890466717757</v>
@@ -1483,16 +1483,16 @@
         <v>16.50686888128499</v>
       </c>
       <c r="K20" t="n">
-        <v>41.08896378965882</v>
+        <v>41.08896378965836</v>
       </c>
       <c r="L20" t="n">
-        <v>16.13335075441231</v>
+        <v>16.13335075440955</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04210918431812814</v>
+        <v>0.04210918431814128</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1123010475500077</v>
+        <v>0.1123010475508996</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0005185999999923752</v>
+        <v>0.0002039999999965403</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.9557993474635</v>
       </c>
       <c r="F21" t="n">
-        <v>19.3525287084729</v>
+        <v>19.35252870847284</v>
       </c>
       <c r="G21" t="n">
-        <v>17.12205917028256</v>
+        <v>17.12205917028274</v>
       </c>
       <c r="H21" t="n">
-        <v>11.96808967070078</v>
+        <v>11.96808967070035</v>
       </c>
       <c r="I21" t="n">
         <v>10.08818411982853</v>
@@ -1535,16 +1535,16 @@
         <v>31.75837563530379</v>
       </c>
       <c r="K21" t="n">
-        <v>10.02293241704081</v>
+        <v>10.0229324170408</v>
       </c>
       <c r="L21" t="n">
-        <v>30.93345447651979</v>
+        <v>30.93345447651921</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04020447130797716</v>
+        <v>0.04020447130797852</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1048396323783611</v>
+        <v>0.1048396323784827</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.000361600000005069</v>
+        <v>0.0001854999999864049</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.8232213774765</v>
       </c>
       <c r="F22" t="n">
-        <v>19.7299143347107</v>
+        <v>19.72991433471333</v>
       </c>
       <c r="G22" t="n">
-        <v>105.1435755012385</v>
+        <v>105.1435755012386</v>
       </c>
       <c r="H22" t="n">
-        <v>13.68979315446076</v>
+        <v>13.68979315446308</v>
       </c>
       <c r="I22" t="n">
         <v>52.99086548673188</v>
@@ -1587,16 +1587,16 @@
         <v>21.3741511885343</v>
       </c>
       <c r="K22" t="n">
-        <v>52.92158782706678</v>
+        <v>52.92158782706709</v>
       </c>
       <c r="L22" t="n">
-        <v>21.26676928788022</v>
+        <v>21.26676928788347</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04258043890901168</v>
+        <v>0.04258043890899924</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05871654410688257</v>
+        <v>0.05871654410612893</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0002968000000009852</v>
+        <v>0.0002570999999988999</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.01039284990110188</v>
       </c>
       <c r="F23" t="n">
-        <v>19.99862334590648</v>
+        <v>19.99862334590688</v>
       </c>
       <c r="G23" t="n">
-        <v>8.874196239553306</v>
+        <v>8.874196239553854</v>
       </c>
       <c r="H23" t="n">
-        <v>6.142327451856011</v>
+        <v>6.142327451855975</v>
       </c>
       <c r="I23" t="n">
         <v>5.36750693504376</v>
@@ -1639,16 +1639,16 @@
         <v>25.16639260177412</v>
       </c>
       <c r="K23" t="n">
-        <v>5.353092356789062</v>
+        <v>5.353092356789139</v>
       </c>
       <c r="L23" t="n">
-        <v>24.77286343572419</v>
+        <v>24.77286343572455</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04146906716107217</v>
+        <v>0.04146906716107106</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1586197040670497</v>
+        <v>0.1586197040670324</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0002956000000011727</v>
+        <v>0.0001963999999929911</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.01838998397303894</v>
       </c>
       <c r="F24" t="n">
-        <v>19.71498352101182</v>
+        <v>19.71498352101028</v>
       </c>
       <c r="G24" t="n">
-        <v>38.16469162929224</v>
+        <v>38.1646916292932</v>
       </c>
       <c r="H24" t="n">
-        <v>8.291220622056095</v>
+        <v>8.29122062205454</v>
       </c>
       <c r="I24" t="n">
         <v>16.42485345887366</v>
@@ -1691,16 +1691,16 @@
         <v>26.83511193928066</v>
       </c>
       <c r="K24" t="n">
-        <v>16.37898288643758</v>
+        <v>16.37898288643735</v>
       </c>
       <c r="L24" t="n">
-        <v>25.9754134557243</v>
+        <v>25.97541345572103</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04527836973053705</v>
+        <v>0.04527836973054614</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2201269273930609</v>
+        <v>0.2201269273937875</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0006256000000064432</v>
+        <v>0.0001861000000076274</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.8666023887293</v>
       </c>
       <c r="F25" t="n">
-        <v>19.57238752343494</v>
+        <v>19.57238752343776</v>
       </c>
       <c r="G25" t="n">
-        <v>92.57443717937261</v>
+        <v>92.57443717937358</v>
       </c>
       <c r="H25" t="n">
-        <v>14.13960718354391</v>
+        <v>14.13960718354635</v>
       </c>
       <c r="I25" t="n">
         <v>48.17804819258614</v>
@@ -1743,16 +1743,16 @@
         <v>24.6655445066675</v>
       </c>
       <c r="K25" t="n">
-        <v>48.14251222735341</v>
+        <v>48.1425122273538</v>
       </c>
       <c r="L25" t="n">
-        <v>24.26842405075606</v>
+        <v>24.26842405075982</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03933116743033555</v>
+        <v>0.03933116743032377</v>
       </c>
       <c r="N25" t="n">
-        <v>0.08817505986319873</v>
+        <v>0.08817505986239661</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003255000000024211</v>
+        <v>0.0001829999999927168</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.7341575654701</v>
       </c>
       <c r="F26" t="n">
-        <v>20.51548119410818</v>
+        <v>20.51548119410617</v>
       </c>
       <c r="G26" t="n">
-        <v>170.9716411075252</v>
+        <v>170.9716411075266</v>
       </c>
       <c r="H26" t="n">
-        <v>11.48077260622633</v>
+        <v>11.48077260622508</v>
       </c>
       <c r="I26" t="n">
         <v>37.05770755775833</v>
@@ -1795,16 +1795,16 @@
         <v>4.784771626472109</v>
       </c>
       <c r="K26" t="n">
-        <v>37.02075739118335</v>
+        <v>37.02075739118231</v>
       </c>
       <c r="L26" t="n">
-        <v>5.376455758794233</v>
+        <v>5.376455758793441</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0452363936146048</v>
+        <v>0.04523639361460745</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2801312583144001</v>
+        <v>0.2801312583140793</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0002905999999995856</v>
+        <v>0.0001842000000067401</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.9543453820668</v>
       </c>
       <c r="F27" t="n">
-        <v>19.97332582247574</v>
+        <v>19.97332582247348</v>
       </c>
       <c r="G27" t="n">
-        <v>156.3465808673036</v>
+        <v>156.3465808673054</v>
       </c>
       <c r="H27" t="n">
-        <v>9.956049943142629</v>
+        <v>9.956049943141274</v>
       </c>
       <c r="I27" t="n">
         <v>42.87464225195476</v>
@@ -1847,16 +1847,16 @@
         <v>8.709475492388034</v>
       </c>
       <c r="K27" t="n">
-        <v>42.84300092406837</v>
+        <v>42.84300092406769</v>
       </c>
       <c r="L27" t="n">
-        <v>8.746897022407245</v>
+        <v>8.746897022405903</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04368346007026739</v>
+        <v>0.04368346007027919</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02979372515949555</v>
+        <v>0.02979372515970394</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002934999999979482</v>
+        <v>0.0003336000000047079</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.960801357668</v>
       </c>
       <c r="F28" t="n">
-        <v>19.58926659249818</v>
+        <v>19.58926659249723</v>
       </c>
       <c r="G28" t="n">
-        <v>55.22638975827226</v>
+        <v>55.22638975827247</v>
       </c>
       <c r="H28" t="n">
-        <v>9.016424682171916</v>
+        <v>9.016424682171168</v>
       </c>
       <c r="I28" t="n">
         <v>23.50223078865571</v>
@@ -1899,16 +1899,16 @@
         <v>25.81162416209323</v>
       </c>
       <c r="K28" t="n">
-        <v>23.46104932304771</v>
+        <v>23.46104932304758</v>
       </c>
       <c r="L28" t="n">
-        <v>25.22945736191706</v>
+        <v>25.22945736191539</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03977347113015576</v>
+        <v>0.03977347113016069</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1114953686456837</v>
+        <v>0.1114953686460243</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003284000000007836</v>
+        <v>0.0002037000000143507</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.7428789169535</v>
       </c>
       <c r="F29" t="n">
-        <v>19.68785463511406</v>
+        <v>19.68785463511296</v>
       </c>
       <c r="G29" t="n">
-        <v>75.43842554725771</v>
+        <v>75.43842554725802</v>
       </c>
       <c r="H29" t="n">
-        <v>12.92638599810619</v>
+        <v>12.92638599810513</v>
       </c>
       <c r="I29" t="n">
         <v>37.54462213366881</v>
@@ -1951,16 +1951,16 @@
         <v>26.39565896564254</v>
       </c>
       <c r="K29" t="n">
-        <v>37.5063645595723</v>
+        <v>37.50636455957221</v>
       </c>
       <c r="L29" t="n">
-        <v>26.43592425314069</v>
+        <v>26.43592425313877</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0469723439477333</v>
+        <v>0.04697234394774022</v>
       </c>
       <c r="N29" t="n">
-        <v>0.07151699316961269</v>
+        <v>0.07151699316929913</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0002903000000031852</v>
+        <v>0.0001857000000029529</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.910733524426</v>
       </c>
       <c r="F30" t="n">
-        <v>19.87061919771327</v>
+        <v>19.87061919771236</v>
       </c>
       <c r="G30" t="n">
-        <v>130.5639349319309</v>
+        <v>130.5639349319316</v>
       </c>
       <c r="H30" t="n">
-        <v>9.676275358385286</v>
+        <v>9.6762753583847</v>
       </c>
       <c r="I30" t="n">
         <v>45.79205508530252</v>
@@ -2003,16 +2003,16 @@
         <v>13.89068101942091</v>
       </c>
       <c r="K30" t="n">
-        <v>45.74953278262113</v>
+        <v>45.74953278262098</v>
       </c>
       <c r="L30" t="n">
-        <v>13.90563251724511</v>
+        <v>13.90563251724427</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03973256537887013</v>
+        <v>0.03973256537887407</v>
       </c>
       <c r="N30" t="n">
-        <v>0.04393694332670765</v>
+        <v>0.04393694332677536</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003646000000117056</v>
+        <v>0.0001853999999923417</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.08349642526091273</v>
       </c>
       <c r="F31" t="n">
-        <v>19.71818685609222</v>
+        <v>19.71818685609153</v>
       </c>
       <c r="G31" t="n">
-        <v>157.1446082888395</v>
+        <v>157.1446082888414</v>
       </c>
       <c r="H31" t="n">
-        <v>6.415323491352406</v>
+        <v>6.415323491352257</v>
       </c>
       <c r="I31" t="n">
         <v>22.82783905909671</v>
@@ -2055,16 +2055,16 @@
         <v>11.25757446175414</v>
       </c>
       <c r="K31" t="n">
-        <v>22.71426558003841</v>
+        <v>22.71426558003821</v>
       </c>
       <c r="L31" t="n">
-        <v>10.84927909700156</v>
+        <v>10.84927909700089</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04243028991075813</v>
+        <v>0.04243028991076354</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1319180440907345</v>
+        <v>0.1319180440909956</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003226999999981217</v>
+        <v>0.0001919999999984157</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.2528105329552826</v>
       </c>
       <c r="F32" t="n">
-        <v>19.0246397691842</v>
+        <v>19.02463976918292</v>
       </c>
       <c r="G32" t="n">
         <v>119.6929166867379</v>
       </c>
       <c r="H32" t="n">
-        <v>6.946391250470787</v>
+        <v>6.946391250470098</v>
       </c>
       <c r="I32" t="n">
         <v>34.85112742421163</v>
@@ -2107,16 +2107,16 @@
         <v>16.34058174572703</v>
       </c>
       <c r="K32" t="n">
-        <v>34.67837580652991</v>
+        <v>34.67837580652955</v>
       </c>
       <c r="L32" t="n">
-        <v>14.93144721544416</v>
+        <v>14.93144721544301</v>
       </c>
       <c r="M32" t="n">
-        <v>0.04612689703109563</v>
+        <v>0.04612689703110393</v>
       </c>
       <c r="N32" t="n">
-        <v>0.4862291926408188</v>
+        <v>0.4862291926412501</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003090999999955102</v>
+        <v>0.0002502000000106364</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.08295144285031669</v>
       </c>
       <c r="F33" t="n">
-        <v>19.15639959992688</v>
+        <v>19.15639959992829</v>
       </c>
       <c r="G33" t="n">
-        <v>51.26190129859631</v>
+        <v>51.26190129859638</v>
       </c>
       <c r="H33" t="n">
-        <v>13.62367478940169</v>
+        <v>13.62367478940318</v>
       </c>
       <c r="I33" t="n">
         <v>27.6517349691609</v>
@@ -2159,16 +2159,16 @@
         <v>31.85401002845563</v>
       </c>
       <c r="K33" t="n">
-        <v>27.5243936960616</v>
+        <v>27.52439369606175</v>
       </c>
       <c r="L33" t="n">
-        <v>30.18695795352552</v>
+        <v>30.1869579535284</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04268201078572365</v>
+        <v>0.04268201078571602</v>
       </c>
       <c r="N33" t="n">
-        <v>0.2754012507966969</v>
+        <v>0.2754012507962538</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003056000000043468</v>
+        <v>0.0002018999999791049</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.06977889019788849</v>
       </c>
       <c r="F34" t="n">
-        <v>19.53332346730374</v>
+        <v>19.53332346730332</v>
       </c>
       <c r="G34" t="n">
-        <v>156.1247362880734</v>
+        <v>156.124736288074</v>
       </c>
       <c r="H34" t="n">
-        <v>7.341732061646349</v>
+        <v>7.341732061646172</v>
       </c>
       <c r="I34" t="n">
         <v>28.38669219472616</v>
@@ -2211,16 +2211,16 @@
         <v>10.55219493556909</v>
       </c>
       <c r="K34" t="n">
-        <v>28.24517317929615</v>
+        <v>28.24517317929598</v>
       </c>
       <c r="L34" t="n">
-        <v>10.05840537778785</v>
+        <v>10.05840537778753</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04282618010542778</v>
+        <v>0.04282618010543128</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1952489193301136</v>
+        <v>0.1952489193302735</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003446999999994205</v>
+        <v>0.0001876999999979034</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.06377070102162243</v>
       </c>
       <c r="F35" t="n">
-        <v>19.52850922401042</v>
+        <v>19.52850922400832</v>
       </c>
       <c r="G35" t="n">
-        <v>45.46534863480478</v>
+        <v>45.46534863480395</v>
       </c>
       <c r="H35" t="n">
-        <v>7.81107491203411</v>
+        <v>7.81107491203282</v>
       </c>
       <c r="I35" t="n">
         <v>18.6090803159811</v>
@@ -2263,16 +2263,16 @@
         <v>25.8983258433767</v>
       </c>
       <c r="K35" t="n">
-        <v>18.53380597069076</v>
+        <v>18.5338059706904</v>
       </c>
       <c r="L35" t="n">
-        <v>24.7707034533405</v>
+        <v>24.77070345333718</v>
       </c>
       <c r="M35" t="n">
-        <v>0.03941879451153017</v>
+        <v>0.03941879451153975</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2849176861543193</v>
+        <v>0.2849176861549889</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003144000000077085</v>
+        <v>0.0001871000000051026</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.9512329798744</v>
       </c>
       <c r="F36" t="n">
-        <v>19.56455542465697</v>
+        <v>19.56455542465659</v>
       </c>
       <c r="G36" t="n">
-        <v>6.840037469038435</v>
+        <v>6.840037469038194</v>
       </c>
       <c r="H36" t="n">
-        <v>12.07256269343907</v>
+        <v>12.0725626934391</v>
       </c>
       <c r="I36" t="n">
         <v>5.272501281412788</v>
@@ -2315,16 +2315,16 @@
         <v>32.24479883815602</v>
       </c>
       <c r="K36" t="n">
-        <v>5.250291399877041</v>
+        <v>5.25029139987699</v>
       </c>
       <c r="L36" t="n">
-        <v>31.46415878929366</v>
+        <v>31.46415878929333</v>
       </c>
       <c r="M36" t="n">
-        <v>0.03935417407542371</v>
+        <v>0.03935417407542455</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1068055163144002</v>
+        <v>0.106805516314424</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0002917999999993981</v>
+        <v>0.0001854999999864049</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.3779473420175646</v>
       </c>
       <c r="F37" t="n">
-        <v>19.10611287538606</v>
+        <v>19.10611287538704</v>
       </c>
       <c r="G37" t="n">
-        <v>89.93329715579077</v>
+        <v>89.93329715578956</v>
       </c>
       <c r="H37" t="n">
-        <v>5.696579333207355</v>
+        <v>5.696579333207866</v>
       </c>
       <c r="I37" t="n">
         <v>26.3682126287348</v>
@@ -2367,16 +2367,16 @@
         <v>20.58139294425217</v>
       </c>
       <c r="K37" t="n">
-        <v>26.24109120870793</v>
+        <v>26.24109120870811</v>
       </c>
       <c r="L37" t="n">
-        <v>18.39283045517886</v>
+        <v>18.39283045518015</v>
       </c>
       <c r="M37" t="n">
-        <v>0.05637708582535354</v>
+        <v>0.05637708582534664</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7705664106524472</v>
+        <v>0.7705664106520791</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003226999999981217</v>
+        <v>0.0002921999999898617</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.8647173468491</v>
       </c>
       <c r="F38" t="n">
-        <v>19.87939432418085</v>
+        <v>19.87939432418532</v>
       </c>
       <c r="G38" t="n">
-        <v>130.2479534853468</v>
+        <v>130.2479534853446</v>
       </c>
       <c r="H38" t="n">
-        <v>10.18012920565076</v>
+        <v>10.18012920565378</v>
       </c>
       <c r="I38" t="n">
         <v>48.16347976442483</v>
@@ -2419,16 +2419,16 @@
         <v>13.96841538265422</v>
       </c>
       <c r="K38" t="n">
-        <v>48.11186569441355</v>
+        <v>48.11186569441435</v>
       </c>
       <c r="L38" t="n">
-        <v>14.03394027399885</v>
+        <v>14.03394027400277</v>
       </c>
       <c r="M38" t="n">
-        <v>0.04743555304833556</v>
+        <v>0.0474355530483135</v>
       </c>
       <c r="N38" t="n">
-        <v>0.05240500865642796</v>
+        <v>0.05240500865601131</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003147999999981721</v>
+        <v>0.0001924000000030901</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.01089272246750185</v>
       </c>
       <c r="F39" t="n">
-        <v>19.85144920840974</v>
+        <v>19.8514492084091</v>
       </c>
       <c r="G39" t="n">
-        <v>170.2393809868817</v>
+        <v>170.239380986883</v>
       </c>
       <c r="H39" t="n">
-        <v>8.516298089945213</v>
+        <v>8.516298089945069</v>
       </c>
       <c r="I39" t="n">
         <v>22.15312424526588</v>
@@ -2471,16 +2471,16 @@
         <v>7.834932884569842</v>
       </c>
       <c r="K39" t="n">
-        <v>22.08621341320158</v>
+        <v>22.08621341320133</v>
       </c>
       <c r="L39" t="n">
-        <v>7.730749386805928</v>
+        <v>7.730749386805369</v>
       </c>
       <c r="M39" t="n">
-        <v>0.03975582976625796</v>
+        <v>0.03975582976626339</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0600670803927448</v>
+        <v>0.06006708039300012</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003638999999964199</v>
+        <v>0.0001858999999910793</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.7982588703766</v>
       </c>
       <c r="F40" t="n">
-        <v>19.64242730217062</v>
+        <v>19.6424273021744</v>
       </c>
       <c r="G40" t="n">
-        <v>68.48435053411778</v>
+        <v>68.48435053411926</v>
       </c>
       <c r="H40" t="n">
-        <v>13.33005516888587</v>
+        <v>13.33005516888898</v>
       </c>
       <c r="I40" t="n">
         <v>34.96648716718858</v>
@@ -2523,16 +2523,16 @@
         <v>28.11848681131468</v>
       </c>
       <c r="K40" t="n">
-        <v>34.92124467345403</v>
+        <v>34.92124467345451</v>
       </c>
       <c r="L40" t="n">
-        <v>27.91984158342738</v>
+        <v>27.91984158343335</v>
       </c>
       <c r="M40" t="n">
-        <v>0.04617583501575855</v>
+        <v>0.04617583501573998</v>
       </c>
       <c r="N40" t="n">
-        <v>0.04500109831505167</v>
+        <v>0.04500109831512387</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003095000000001846</v>
+        <v>0.0006414000000063425</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.7190320867956</v>
       </c>
       <c r="F41" t="n">
-        <v>19.85676750908739</v>
+        <v>19.85676750909677</v>
       </c>
       <c r="G41" t="n">
-        <v>97.02756237159535</v>
+        <v>97.02756237159545</v>
       </c>
       <c r="H41" t="n">
-        <v>12.76190687868729</v>
+        <v>12.76190687869513</v>
       </c>
       <c r="I41" t="n">
         <v>46.69997733810174</v>
@@ -2575,16 +2575,16 @@
         <v>22.11787085750909</v>
       </c>
       <c r="K41" t="n">
-        <v>46.6399067541221</v>
+        <v>46.63990675412319</v>
       </c>
       <c r="L41" t="n">
-        <v>22.38119878874155</v>
+        <v>22.38119878875392</v>
       </c>
       <c r="M41" t="n">
-        <v>0.05019573758299117</v>
+        <v>0.05019573758293651</v>
       </c>
       <c r="N41" t="n">
-        <v>0.107373710063285</v>
+        <v>0.1073737100655045</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003154000000051838</v>
+        <v>0.0002497000000118987</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.1215095394422438</v>
       </c>
       <c r="F42" t="n">
-        <v>19.74123811345198</v>
+        <v>19.74123811345257</v>
       </c>
       <c r="G42" t="n">
-        <v>78.70710651493968</v>
+        <v>78.7071065149389</v>
       </c>
       <c r="H42" t="n">
-        <v>3.331286639353788</v>
+        <v>3.331286639354005</v>
       </c>
       <c r="I42" t="n">
         <v>16.11028815977839</v>
@@ -2627,16 +2627,16 @@
         <v>19.40305890800094</v>
       </c>
       <c r="K42" t="n">
-        <v>15.99270324991795</v>
+        <v>15.99270324991809</v>
       </c>
       <c r="L42" t="n">
-        <v>18.62863635415461</v>
+        <v>18.62863635415535</v>
       </c>
       <c r="M42" t="n">
-        <v>0.04112340138819988</v>
+        <v>0.04112340138819694</v>
       </c>
       <c r="N42" t="n">
-        <v>0.4562614951843165</v>
+        <v>0.4562614951840498</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003073999999969601</v>
+        <v>0.0002398000000027878</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.05414246461346952</v>
       </c>
       <c r="F43" t="n">
-        <v>19.69389989435107</v>
+        <v>19.69389989435082</v>
       </c>
       <c r="G43" t="n">
-        <v>48.30207417890679</v>
+        <v>48.30207417890526</v>
       </c>
       <c r="H43" t="n">
-        <v>3.132302044448921</v>
+        <v>3.132302044448938</v>
       </c>
       <c r="I43" t="n">
         <v>11.6234771877166</v>
@@ -2679,16 +2679,16 @@
         <v>20.81671725181581</v>
       </c>
       <c r="K43" t="n">
-        <v>11.53492019794009</v>
+        <v>11.53492019794002</v>
       </c>
       <c r="L43" t="n">
-        <v>19.98143467514955</v>
+        <v>19.98143467514939</v>
       </c>
       <c r="M43" t="n">
-        <v>0.04083119870103084</v>
+        <v>0.04083119870103157</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4635197003663721</v>
+        <v>0.4635197003663485</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003001000000040221</v>
+        <v>0.0002265999999906398</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.9006571693977</v>
       </c>
       <c r="F44" t="n">
-        <v>19.52695466885254</v>
+        <v>19.52695466885289</v>
       </c>
       <c r="G44" t="n">
-        <v>67.07122748059051</v>
+        <v>67.07122748058995</v>
       </c>
       <c r="H44" t="n">
-        <v>14.12276533025922</v>
+        <v>14.12276533025976</v>
       </c>
       <c r="I44" t="n">
         <v>35.49886759486641</v>
@@ -2731,16 +2731,16 @@
         <v>29.50819163776045</v>
       </c>
       <c r="K44" t="n">
-        <v>35.45675702496492</v>
+        <v>35.45675702496489</v>
       </c>
       <c r="L44" t="n">
-        <v>28.86613030932912</v>
+        <v>28.86613030933005</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04077256511461855</v>
+        <v>0.04077256511461535</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1050317104617872</v>
+        <v>0.1050317104616624</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003998999999907937</v>
+        <v>0.0001909000000068772</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.948520014931</v>
       </c>
       <c r="F45" t="n">
-        <v>19.39145285468584</v>
+        <v>19.39145285468551</v>
       </c>
       <c r="G45" t="n">
-        <v>20.09734523128272</v>
+        <v>20.09734523128292</v>
       </c>
       <c r="H45" t="n">
-        <v>10.24722951236864</v>
+        <v>10.24722951236796</v>
       </c>
       <c r="I45" t="n">
         <v>10.84139862960262</v>
@@ -2783,16 +2783,16 @@
         <v>29.48104188665291</v>
       </c>
       <c r="K45" t="n">
-        <v>10.75209932352271</v>
+        <v>10.75209932352265</v>
       </c>
       <c r="L45" t="n">
-        <v>28.82915275302127</v>
+        <v>28.82915275302013</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04032810378413792</v>
+        <v>0.04032810378414052</v>
       </c>
       <c r="N45" t="n">
-        <v>0.08942149049657568</v>
+        <v>0.08942149049681652</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003135000000042965</v>
+        <v>0.0001910999999950036</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.1501229434511689</v>
       </c>
       <c r="F46" t="n">
-        <v>19.91938227358067</v>
+        <v>19.91938227358122</v>
       </c>
       <c r="G46" t="n">
-        <v>155.506426649179</v>
+        <v>155.5064266491775</v>
       </c>
       <c r="H46" t="n">
-        <v>4.568609981840773</v>
+        <v>4.568609981840868</v>
       </c>
       <c r="I46" t="n">
         <v>15.96520424559259</v>
@@ -2835,16 +2835,16 @@
         <v>13.46641365931518</v>
       </c>
       <c r="K46" t="n">
-        <v>15.84765673848014</v>
+        <v>15.84765673848033</v>
       </c>
       <c r="L46" t="n">
-        <v>12.80051921206944</v>
+        <v>12.80051921206998</v>
       </c>
       <c r="M46" t="n">
-        <v>0.04343693483679155</v>
+        <v>0.04343693483678721</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4253220361904845</v>
+        <v>0.4253220361903853</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003075999999992973</v>
+        <v>0.0004061999999862564</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9947250454301</v>
       </c>
       <c r="F47" t="n">
-        <v>19.80869439107812</v>
+        <v>19.80869439107768</v>
       </c>
       <c r="G47" t="n">
-        <v>178.2406348245977</v>
+        <v>178.2406348245978</v>
       </c>
       <c r="H47" t="n">
-        <v>9.543966881346027</v>
+        <v>9.543966881345636</v>
       </c>
       <c r="I47" t="n">
         <v>14.9370660770169</v>
@@ -2887,16 +2887,16 @@
         <v>6.082586648846124</v>
       </c>
       <c r="K47" t="n">
-        <v>14.8220467014134</v>
+        <v>14.82204670141307</v>
       </c>
       <c r="L47" t="n">
-        <v>5.942714234912657</v>
+        <v>5.942714234912678</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03868918543743659</v>
+        <v>0.03868918543744099</v>
       </c>
       <c r="N47" t="n">
-        <v>0.08572154553267243</v>
+        <v>0.08572154553284941</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002988000000101465</v>
+        <v>0.0002375999999912892</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.8830248320259</v>
       </c>
       <c r="F48" t="n">
-        <v>20.04141850432591</v>
+        <v>20.04141850431723</v>
       </c>
       <c r="G48" t="n">
-        <v>140.3987048469815</v>
+        <v>140.3987048469845</v>
       </c>
       <c r="H48" t="n">
-        <v>10.66157357911603</v>
+        <v>10.66157357911006</v>
       </c>
       <c r="I48" t="n">
         <v>50.84770593025824</v>
@@ -2939,16 +2939,16 @@
         <v>11.82955794607099</v>
       </c>
       <c r="K48" t="n">
-        <v>50.81940424866148</v>
+        <v>50.81940424865948</v>
       </c>
       <c r="L48" t="n">
-        <v>11.97805588829554</v>
+        <v>11.97805588828935</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04340912472556156</v>
+        <v>0.04340912472559872</v>
       </c>
       <c r="N48" t="n">
-        <v>0.05553356460269436</v>
+        <v>0.05553356460084136</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003117999999915355</v>
+        <v>0.0001938000000052398</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.1696018951532245</v>
       </c>
       <c r="F49" t="n">
-        <v>19.69411821870937</v>
+        <v>19.69411821870871</v>
       </c>
       <c r="G49" t="n">
-        <v>20.75908482057553</v>
+        <v>20.75908482057551</v>
       </c>
       <c r="H49" t="n">
-        <v>13.14005359422739</v>
+        <v>13.14005359422638</v>
       </c>
       <c r="I49" t="n">
         <v>12.18983427447809</v>
@@ -2991,16 +2991,16 @@
         <v>34.68944772507457</v>
       </c>
       <c r="K49" t="n">
-        <v>12.09227945599315</v>
+        <v>12.09227945599305</v>
       </c>
       <c r="L49" t="n">
-        <v>32.54416261484597</v>
+        <v>32.54416261484415</v>
       </c>
       <c r="M49" t="n">
-        <v>0.04263603792700384</v>
+        <v>0.04263603792700717</v>
       </c>
       <c r="N49" t="n">
-        <v>0.4000923222872085</v>
+        <v>0.4000923222874948</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002965000000045848</v>
+        <v>0.0002821999999866875</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.1987262639856959</v>
       </c>
       <c r="F50" t="n">
-        <v>20.44565241876387</v>
+        <v>20.44565241876393</v>
       </c>
       <c r="G50" t="n">
-        <v>2.492866118982255</v>
+        <v>2.492866118982306</v>
       </c>
       <c r="H50" t="n">
-        <v>11.13569543399372</v>
+        <v>11.1356954339938</v>
       </c>
       <c r="I50" t="n">
         <v>3.510331044355261</v>
@@ -3043,16 +3043,16 @@
         <v>33.86101386425069</v>
       </c>
       <c r="K50" t="n">
-        <v>3.345409578636109</v>
+        <v>3.345409578636122</v>
       </c>
       <c r="L50" t="n">
-        <v>31.23257953058702</v>
+        <v>31.23257953058718</v>
       </c>
       <c r="M50" t="n">
-        <v>0.04567211555247135</v>
+        <v>0.04567211555247121</v>
       </c>
       <c r="N50" t="n">
-        <v>0.6547611435601598</v>
+        <v>0.6547611435601363</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.000300699999996823</v>
+        <v>0.0002069000000233245</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.2086318156413209</v>
       </c>
       <c r="F51" t="n">
-        <v>19.47502250784671</v>
+        <v>19.47502250784761</v>
       </c>
       <c r="G51" t="n">
-        <v>58.11446417429894</v>
+        <v>58.11446417429982</v>
       </c>
       <c r="H51" t="n">
-        <v>5.100209380461868</v>
+        <v>5.100209380462213</v>
       </c>
       <c r="I51" t="n">
         <v>17.9141781265068</v>
@@ -3095,16 +3095,16 @@
         <v>22.67245653586901</v>
       </c>
       <c r="K51" t="n">
-        <v>17.76758500438297</v>
+        <v>17.76758500438315</v>
       </c>
       <c r="L51" t="n">
-        <v>21.09770908487885</v>
+        <v>21.09770908487996</v>
       </c>
       <c r="M51" t="n">
-        <v>0.04113085127872827</v>
+        <v>0.0411308512787245</v>
       </c>
       <c r="N51" t="n">
-        <v>0.6132817333784286</v>
+        <v>0.6132817333781742</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003446000000053573</v>
+        <v>0.0002435000000104992</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.3120704217367269</v>
       </c>
       <c r="F52" t="n">
-        <v>19.25682566343226</v>
+        <v>19.25682566343065</v>
       </c>
       <c r="G52" t="n">
-        <v>96.49693792184559</v>
+        <v>96.49693792184671</v>
       </c>
       <c r="H52" t="n">
-        <v>5.04711573365978</v>
+        <v>5.047115733659072</v>
       </c>
       <c r="I52" t="n">
         <v>24.7123806252271</v>
@@ -3147,16 +3147,16 @@
         <v>19.26468874930528</v>
       </c>
       <c r="K52" t="n">
-        <v>24.56516024927494</v>
+        <v>24.56516024927458</v>
       </c>
       <c r="L52" t="n">
-        <v>17.54268417917022</v>
+        <v>17.54268417916837</v>
       </c>
       <c r="M52" t="n">
-        <v>0.04925539366779428</v>
+        <v>0.04925539366780426</v>
       </c>
       <c r="N52" t="n">
-        <v>0.6731270760656878</v>
+        <v>0.6731270760662688</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003178999999988719</v>
+        <v>0.0002272999999775038</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.05810063466972768</v>
       </c>
       <c r="F53" t="n">
-        <v>19.64252633717978</v>
+        <v>19.64252633718016</v>
       </c>
       <c r="G53" t="n">
-        <v>123.7485551177346</v>
+        <v>123.7485551177334</v>
       </c>
       <c r="H53" t="n">
-        <v>3.432787155218725</v>
+        <v>3.432787155218829</v>
       </c>
       <c r="I53" t="n">
         <v>17.51566640221833</v>
@@ -3199,16 +3199,16 @@
         <v>15.8948919808433</v>
       </c>
       <c r="K53" t="n">
-        <v>17.38951756724825</v>
+        <v>17.38951756724835</v>
       </c>
       <c r="L53" t="n">
-        <v>15.44349970389826</v>
+        <v>15.44349970389868</v>
       </c>
       <c r="M53" t="n">
-        <v>0.04000655146570593</v>
+        <v>0.04000655146570397</v>
       </c>
       <c r="N53" t="n">
-        <v>0.2051383886661266</v>
+        <v>0.2051383886659525</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002918999999934613</v>
+        <v>0.0002303999999924145</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.8961048318772</v>
       </c>
       <c r="F54" t="n">
-        <v>19.87538984245787</v>
+        <v>19.87538984245728</v>
       </c>
       <c r="G54" t="n">
-        <v>143.0765016644643</v>
+        <v>143.0765016644683</v>
       </c>
       <c r="H54" t="n">
-        <v>3.064022379841252</v>
+        <v>3.064022379841232</v>
       </c>
       <c r="I54" t="n">
         <v>13.13409212102936</v>
@@ -3251,16 +3251,16 @@
         <v>14.38207027932934</v>
       </c>
       <c r="K54" t="n">
-        <v>13.14169168985731</v>
+        <v>13.14169168985712</v>
       </c>
       <c r="L54" t="n">
-        <v>14.70470294036465</v>
+        <v>14.70470294036389</v>
       </c>
       <c r="M54" t="n">
-        <v>0.03790799586143879</v>
+        <v>0.0379079958614416</v>
       </c>
       <c r="N54" t="n">
-        <v>0.3545415914618179</v>
+        <v>0.3545415914616029</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.00131659999999556</v>
+        <v>0.0001852999999982785</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.9588270266299</v>
       </c>
       <c r="F55" t="n">
-        <v>19.74971227052582</v>
+        <v>19.74971227052458</v>
       </c>
       <c r="G55" t="n">
-        <v>152.2977764382792</v>
+        <v>152.2977764382804</v>
       </c>
       <c r="H55" t="n">
-        <v>9.576006851080022</v>
+        <v>9.576006851079304</v>
       </c>
       <c r="I55" t="n">
         <v>43.10728306886178</v>
@@ -3303,16 +3303,16 @@
         <v>9.632097422497353</v>
       </c>
       <c r="K55" t="n">
-        <v>43.03781464538869</v>
+        <v>43.03781464538839</v>
       </c>
       <c r="L55" t="n">
-        <v>9.521517073125786</v>
+        <v>9.521517073124929</v>
       </c>
       <c r="M55" t="n">
-        <v>0.04584604403802189</v>
+        <v>0.04584604403802902</v>
       </c>
       <c r="N55" t="n">
-        <v>0.07961176808106275</v>
+        <v>0.07961176808143572</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003191999999927475</v>
+        <v>0.0001862999999957538</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.3704421489225846</v>
       </c>
       <c r="F56" t="n">
-        <v>19.03681021213578</v>
+        <v>19.03681021213519</v>
       </c>
       <c r="G56" t="n">
-        <v>81.19161126805177</v>
+        <v>81.19161126805041</v>
       </c>
       <c r="H56" t="n">
-        <v>6.214005202700188</v>
+        <v>6.214005202699981</v>
       </c>
       <c r="I56" t="n">
         <v>26.41857436802691</v>
@@ -3355,16 +3355,16 @@
         <v>21.857439245682</v>
       </c>
       <c r="K56" t="n">
-        <v>26.25476873993969</v>
+        <v>26.25476873993955</v>
       </c>
       <c r="L56" t="n">
-        <v>19.58208180702341</v>
+        <v>19.58208180702288</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0494355909157699</v>
+        <v>0.04943559091577238</v>
       </c>
       <c r="N56" t="n">
-        <v>0.7423597427763795</v>
+        <v>0.7423597427764845</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003001999999980853</v>
+        <v>0.0002417000000036751</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.3247462229268011</v>
       </c>
       <c r="F57" t="n">
-        <v>19.99716384848982</v>
+        <v>19.9971638484906</v>
       </c>
       <c r="G57" t="n">
-        <v>17.43030572486563</v>
+        <v>17.43030572486616</v>
       </c>
       <c r="H57" t="n">
-        <v>12.13389540607467</v>
+        <v>12.13389540607512</v>
       </c>
       <c r="I57" t="n">
         <v>10.33697773787481</v>
@@ -3407,16 +3407,16 @@
         <v>34.79295383250428</v>
       </c>
       <c r="K57" t="n">
-        <v>10.23293170001454</v>
+        <v>10.23293170001465</v>
       </c>
       <c r="L57" t="n">
-        <v>31.77802997795922</v>
+        <v>31.77802997796051</v>
       </c>
       <c r="M57" t="n">
-        <v>0.04859319937344071</v>
+        <v>0.04859319937343855</v>
       </c>
       <c r="N57" t="n">
-        <v>0.6179676272284568</v>
+        <v>0.6179676272283026</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002938000000085594</v>
+        <v>0.0001890000000059899</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.207528635100521</v>
       </c>
       <c r="F58" t="n">
-        <v>20.07653835338073</v>
+        <v>20.07653835338114</v>
       </c>
       <c r="G58" t="n">
-        <v>179.1561382001245</v>
+        <v>179.156138200124</v>
       </c>
       <c r="H58" t="n">
-        <v>7.791131921835322</v>
+        <v>7.791131921835455</v>
       </c>
       <c r="I58" t="n">
         <v>10.01126221134659</v>
@@ -3459,16 +3459,16 @@
         <v>9.131905031738382</v>
       </c>
       <c r="K58" t="n">
-        <v>9.660932650787192</v>
+        <v>9.660932650787434</v>
       </c>
       <c r="L58" t="n">
-        <v>8.228393936695428</v>
+        <v>8.228393936695682</v>
       </c>
       <c r="M58" t="n">
-        <v>0.05217363268240566</v>
+        <v>0.05217363268239626</v>
       </c>
       <c r="N58" t="n">
-        <v>0.5846932433667036</v>
+        <v>0.5846932433666288</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003481000000107315</v>
+        <v>0.0001860000000135642</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.02621043146937827</v>
       </c>
       <c r="F59" t="n">
-        <v>19.54972239933106</v>
+        <v>19.54972239933127</v>
       </c>
       <c r="G59" t="n">
-        <v>15.06126458901817</v>
+        <v>15.06126458901818</v>
       </c>
       <c r="H59" t="n">
-        <v>5.614454514768652</v>
+        <v>5.614454514768941</v>
       </c>
       <c r="I59" t="n">
         <v>7.21865410269864</v>
@@ -3511,16 +3511,16 @@
         <v>24.23572292664682</v>
       </c>
       <c r="K59" t="n">
-        <v>7.125497759206896</v>
+        <v>7.125497759206947</v>
       </c>
       <c r="L59" t="n">
-        <v>23.62169985238182</v>
+        <v>23.62169985238236</v>
       </c>
       <c r="M59" t="n">
-        <v>0.04472807011699615</v>
+        <v>0.04472807011699464</v>
       </c>
       <c r="N59" t="n">
-        <v>0.1476471058722647</v>
+        <v>0.1476471058720873</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002968999999950483</v>
+        <v>0.0001854999999864049</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.1520372292349083</v>
       </c>
       <c r="F60" t="n">
-        <v>19.17791138473483</v>
+        <v>19.17791138473391</v>
       </c>
       <c r="G60" t="n">
-        <v>66.68513317320564</v>
+        <v>66.68513317320468</v>
       </c>
       <c r="H60" t="n">
-        <v>7.665314980098782</v>
+        <v>7.665314980098334</v>
       </c>
       <c r="I60" t="n">
         <v>25.72186802556637</v>
@@ -3563,16 +3563,16 @@
         <v>23.90445332822715</v>
       </c>
       <c r="K60" t="n">
-        <v>25.57558043608365</v>
+        <v>25.57558043608346</v>
       </c>
       <c r="L60" t="n">
-        <v>22.39653948999721</v>
+        <v>22.39653948999607</v>
       </c>
       <c r="M60" t="n">
-        <v>0.04044794564749005</v>
+        <v>0.04044794564749356</v>
       </c>
       <c r="N60" t="n">
-        <v>0.3884395473749517</v>
+        <v>0.3884395473751898</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003027000000059843</v>
+        <v>0.0004270000000019536</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.3338567042789481</v>
       </c>
       <c r="F61" t="n">
-        <v>19.87511585033433</v>
+        <v>19.87511585033415</v>
       </c>
       <c r="G61" t="n">
-        <v>173.0557740838648</v>
+        <v>173.0557740838638</v>
       </c>
       <c r="H61" t="n">
-        <v>5.95914742489189</v>
+        <v>5.959147424891468</v>
       </c>
       <c r="I61" t="n">
         <v>12.36048824931865</v>
@@ -3615,16 +3615,16 @@
         <v>11.95385309927802</v>
       </c>
       <c r="K61" t="n">
-        <v>11.9529766021998</v>
+        <v>11.95297660219975</v>
       </c>
       <c r="L61" t="n">
-        <v>10.38506635093729</v>
+        <v>10.38506635093763</v>
       </c>
       <c r="M61" t="n">
-        <v>0.05814353078028769</v>
+        <v>0.0581435307802874</v>
       </c>
       <c r="N61" t="n">
-        <v>1.032673255788241</v>
+        <v>1.032673255787966</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.000644400000012979</v>
+        <v>0.0002269999999953143</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.1843541986426154</v>
       </c>
       <c r="F62" t="n">
-        <v>19.75953523282693</v>
+        <v>19.75953523282682</v>
       </c>
       <c r="G62" t="n">
-        <v>59.64315696751801</v>
+        <v>59.64315696751602</v>
       </c>
       <c r="H62" t="n">
-        <v>4.491339037197839</v>
+        <v>4.491339037197952</v>
       </c>
       <c r="I62" t="n">
         <v>16.57573316800831</v>
@@ -3667,16 +3667,16 @@
         <v>21.9814878807647</v>
       </c>
       <c r="K62" t="n">
-        <v>16.49961119213978</v>
+        <v>16.49961119213974</v>
       </c>
       <c r="L62" t="n">
-        <v>20.72011098985065</v>
+        <v>20.72011098985077</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0476603882281851</v>
+        <v>0.04766038822818489</v>
       </c>
       <c r="N62" t="n">
-        <v>0.6103733093847499</v>
+        <v>0.6103733093846506</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003281000000043832</v>
+        <v>0.0001904000000081396</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.08629911031195799</v>
       </c>
       <c r="F63" t="n">
-        <v>19.76250826013581</v>
+        <v>19.7625082601352</v>
       </c>
       <c r="G63" t="n">
-        <v>150.8171655321273</v>
+        <v>150.8171655321288</v>
       </c>
       <c r="H63" t="n">
-        <v>5.221393040451436</v>
+        <v>5.221393040451281</v>
       </c>
       <c r="I63" t="n">
         <v>20.09731597443985</v>
@@ -3719,16 +3719,16 @@
         <v>12.87701081010599</v>
       </c>
       <c r="K63" t="n">
-        <v>20.02477929439633</v>
+        <v>20.02477929439614</v>
       </c>
       <c r="L63" t="n">
-        <v>12.42704658155339</v>
+        <v>12.42704658155281</v>
       </c>
       <c r="M63" t="n">
-        <v>0.04292214463706512</v>
+        <v>0.04292214463706943</v>
       </c>
       <c r="N63" t="n">
-        <v>0.1585182567951819</v>
+        <v>0.1585182567952624</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002980000000007976</v>
+        <v>0.0001851000000101521</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.002465085260736356</v>
       </c>
       <c r="F64" t="n">
-        <v>19.89978306766909</v>
+        <v>19.89978306766919</v>
       </c>
       <c r="G64" t="n">
-        <v>5.972056165192753</v>
+        <v>5.972056165192817</v>
       </c>
       <c r="H64" t="n">
-        <v>8.434960271781579</v>
+        <v>8.434960271781074</v>
       </c>
       <c r="I64" t="n">
         <v>4.695261347669589</v>
@@ -3771,16 +3771,16 @@
         <v>28.06116813307842</v>
       </c>
       <c r="K64" t="n">
-        <v>4.64967694062417</v>
+        <v>4.649676940624157</v>
       </c>
       <c r="L64" t="n">
-        <v>27.44074694425634</v>
+        <v>27.44074694425582</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03646446226457042</v>
+        <v>0.03646446226457101</v>
       </c>
       <c r="N64" t="n">
-        <v>0.1732654209080172</v>
+        <v>0.1732654209081886</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003103000000095335</v>
+        <v>0.0001843999999948664</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0.4277957307036171</v>
       </c>
       <c r="F65" t="n">
-        <v>18.81150023358259</v>
+        <v>18.8115002335816</v>
       </c>
       <c r="G65" t="n">
-        <v>106.0372596119699</v>
+        <v>106.0372596119708</v>
       </c>
       <c r="H65" t="n">
-        <v>6.722540095550461</v>
+        <v>6.722540095549913</v>
       </c>
       <c r="I65" t="n">
         <v>33.18633892201698</v>
@@ -3823,16 +3823,16 @@
         <v>18.89625465573057</v>
       </c>
       <c r="K65" t="n">
-        <v>32.98379102314927</v>
+        <v>32.9837910231491</v>
       </c>
       <c r="L65" t="n">
-        <v>16.64947720028628</v>
+        <v>16.64947720028512</v>
       </c>
       <c r="M65" t="n">
-        <v>0.05645746650855066</v>
+        <v>0.05645746650855845</v>
       </c>
       <c r="N65" t="n">
-        <v>0.7398314426280858</v>
+        <v>0.7398314426284371</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003178000000048087</v>
+        <v>0.0004662999999993644</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.7799354121537</v>
       </c>
       <c r="F66" t="n">
-        <v>19.71902209159535</v>
+        <v>19.71902209159975</v>
       </c>
       <c r="G66" t="n">
-        <v>66.44125055486239</v>
+        <v>66.44125055486295</v>
       </c>
       <c r="H66" t="n">
-        <v>10.08053431027083</v>
+        <v>10.08053431027402</v>
       </c>
       <c r="I66" t="n">
         <v>29.08874271726011</v>
@@ -3875,16 +3875,16 @@
         <v>24.88481197061157</v>
       </c>
       <c r="K66" t="n">
-        <v>29.04594353686416</v>
+        <v>29.04594353686477</v>
       </c>
       <c r="L66" t="n">
-        <v>25.09338952824121</v>
+        <v>25.09338952824802</v>
       </c>
       <c r="M66" t="n">
-        <v>0.05105974562556538</v>
+        <v>0.05105974562553749</v>
       </c>
       <c r="N66" t="n">
-        <v>0.1397882911933868</v>
+        <v>0.1397882911944923</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003033999999928483</v>
+        <v>0.0002226000000007389</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.1667329646265426</v>
       </c>
       <c r="F67" t="n">
-        <v>19.86578803960657</v>
+        <v>19.86578803960633</v>
       </c>
       <c r="G67" t="n">
-        <v>46.67551713319669</v>
+        <v>46.67551713319826</v>
       </c>
       <c r="H67" t="n">
-        <v>2.585659681729038</v>
+        <v>2.585659681728849</v>
       </c>
       <c r="I67" t="n">
         <v>10.3312492425286</v>
@@ -3927,16 +3927,16 @@
         <v>20.85499145199956</v>
       </c>
       <c r="K67" t="n">
-        <v>10.19651491170247</v>
+        <v>10.1965149117024</v>
       </c>
       <c r="L67" t="n">
-        <v>19.68922173743116</v>
+        <v>19.68922173743069</v>
       </c>
       <c r="M67" t="n">
-        <v>0.04245684101062078</v>
+        <v>0.04245684101062237</v>
       </c>
       <c r="N67" t="n">
-        <v>0.8955694919886271</v>
+        <v>0.8955694919888654</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003068999999982225</v>
+        <v>0.0001905000000022028</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.7168771271872</v>
       </c>
       <c r="F68" t="n">
-        <v>19.1002055306341</v>
+        <v>19.10020553063387</v>
       </c>
       <c r="G68" t="n">
-        <v>23.57727544950829</v>
+        <v>23.57727544950834</v>
       </c>
       <c r="H68" t="n">
-        <v>5.714054516713792</v>
+        <v>5.714054516713562</v>
       </c>
       <c r="I68" t="n">
         <v>9.544606449506214</v>
@@ -3979,16 +3979,16 @@
         <v>22.58510882584286</v>
       </c>
       <c r="K68" t="n">
-        <v>9.521174614086261</v>
+        <v>9.521174614086197</v>
       </c>
       <c r="L68" t="n">
-        <v>23.0860956851905</v>
+        <v>23.08609568519001</v>
       </c>
       <c r="M68" t="n">
-        <v>0.04730990034806745</v>
+        <v>0.0473099003480692</v>
       </c>
       <c r="N68" t="n">
-        <v>0.7501908252549916</v>
+        <v>0.750190825254843</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003234999999932597</v>
+        <v>0.0001858999999910793</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.7742955695559</v>
       </c>
       <c r="F69" t="n">
-        <v>19.80989211535021</v>
+        <v>19.80989211534526</v>
       </c>
       <c r="G69" t="n">
-        <v>97.10861197909742</v>
+        <v>97.1086119790962</v>
       </c>
       <c r="H69" t="n">
-        <v>13.39882244223792</v>
+        <v>13.39882244223377</v>
       </c>
       <c r="I69" t="n">
         <v>48.35751430066835</v>
@@ -4031,16 +4031,16 @@
         <v>22.71174981430071</v>
       </c>
       <c r="K69" t="n">
-        <v>48.2720035247985</v>
+        <v>48.27200352479783</v>
       </c>
       <c r="L69" t="n">
-        <v>22.8421761854637</v>
+        <v>22.84217618545741</v>
       </c>
       <c r="M69" t="n">
-        <v>0.04690071782795396</v>
+        <v>0.0469007178279793</v>
       </c>
       <c r="N69" t="n">
-        <v>0.07695208033432141</v>
+        <v>0.07695208033327393</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003112999999927979</v>
+        <v>0.0001831999999808431</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.1888952728743358</v>
       </c>
       <c r="F70" t="n">
-        <v>19.81648927442208</v>
+        <v>19.81648927442167</v>
       </c>
       <c r="G70" t="n">
-        <v>59.05757814748141</v>
+        <v>59.05757814747965</v>
       </c>
       <c r="H70" t="n">
-        <v>2.568120915922102</v>
+        <v>2.56812091592204</v>
       </c>
       <c r="I70" t="n">
         <v>11.81939003856421</v>
@@ -4083,16 +4083,16 @@
         <v>20.72083320136014</v>
       </c>
       <c r="K70" t="n">
-        <v>11.66738932842904</v>
+        <v>11.66738932842893</v>
       </c>
       <c r="L70" t="n">
-        <v>19.18089404363647</v>
+        <v>19.18089404363609</v>
       </c>
       <c r="M70" t="n">
-        <v>0.04532367827962142</v>
+        <v>0.04532367827962332</v>
       </c>
       <c r="N70" t="n">
-        <v>1.147354834743589</v>
+        <v>1.147354834743648</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.000300699999996823</v>
+        <v>0.0003025999999977103</v>
       </c>
     </row>
     <row r="71">
@@ -4120,13 +4120,13 @@
         <v>359.8168985802904</v>
       </c>
       <c r="F71" t="n">
-        <v>19.26813156446911</v>
+        <v>19.2681315644659</v>
       </c>
       <c r="G71" t="n">
-        <v>52.1086200637184</v>
+        <v>52.10862006371771</v>
       </c>
       <c r="H71" t="n">
-        <v>12.65146508088959</v>
+        <v>12.65146508088668</v>
       </c>
       <c r="I71" t="n">
         <v>26.8338317910883</v>
@@ -4135,16 +4135,16 @@
         <v>29.68943618653344</v>
       </c>
       <c r="K71" t="n">
-        <v>26.74487344805823</v>
+        <v>26.74487344805783</v>
       </c>
       <c r="L71" t="n">
-        <v>29.08761336209315</v>
+        <v>29.08761336208723</v>
       </c>
       <c r="M71" t="n">
-        <v>0.04694538604013734</v>
+        <v>0.04694538604015558</v>
       </c>
       <c r="N71" t="n">
-        <v>0.09771070423744481</v>
+        <v>0.09771070423846498</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0006337000000087301</v>
+        <v>0.0002274999999940519</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.8298005183396</v>
       </c>
       <c r="F72" t="n">
-        <v>20.5857612993657</v>
+        <v>20.58576129935629</v>
       </c>
       <c r="G72" t="n">
-        <v>166.0363625084036</v>
+        <v>166.0363625084084</v>
       </c>
       <c r="H72" t="n">
-        <v>13.91126549660624</v>
+        <v>13.91126549659878</v>
       </c>
       <c r="I72" t="n">
         <v>71.23042357909056</v>
@@ -4187,16 +4187,16 @@
         <v>5.091810049838018</v>
       </c>
       <c r="K72" t="n">
-        <v>70.99902311038637</v>
+        <v>70.99902311038491</v>
       </c>
       <c r="L72" t="n">
-        <v>5.433611537347811</v>
+        <v>5.433611537344153</v>
       </c>
       <c r="M72" t="n">
-        <v>0.04473275610137458</v>
+        <v>0.04473275610141705</v>
       </c>
       <c r="N72" t="n">
-        <v>0.2745503465629467</v>
+        <v>0.2745503465606131</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003044999999985976</v>
+        <v>0.0001923000000090269</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.08612062994596124</v>
       </c>
       <c r="F73" t="n">
-        <v>19.71148872781027</v>
+        <v>19.71148872780961</v>
       </c>
       <c r="G73" t="n">
-        <v>34.65207735427462</v>
+        <v>34.65207735427392</v>
       </c>
       <c r="H73" t="n">
-        <v>6.881708515598248</v>
+        <v>6.881708515597972</v>
       </c>
       <c r="I73" t="n">
         <v>13.94596386491522</v>
@@ -4239,16 +4239,16 @@
         <v>25.79680087522651</v>
       </c>
       <c r="K73" t="n">
-        <v>13.86332298730914</v>
+        <v>13.86332298730902</v>
       </c>
       <c r="L73" t="n">
-        <v>24.6050850847663</v>
+        <v>24.60508508476538</v>
       </c>
       <c r="M73" t="n">
-        <v>0.04049355555551233</v>
+        <v>0.04049355555551504</v>
       </c>
       <c r="N73" t="n">
-        <v>0.3767609299824736</v>
+        <v>0.3767609299826339</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0002972000000056596</v>
+        <v>0.0001848999999936041</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.9362909001869</v>
       </c>
       <c r="F74" t="n">
-        <v>19.4642850728264</v>
+        <v>19.46428507282586</v>
       </c>
       <c r="G74" t="n">
-        <v>18.75078635077742</v>
+        <v>18.75078635077736</v>
       </c>
       <c r="H74" t="n">
-        <v>11.2232796718598</v>
+        <v>11.22327967185902</v>
       </c>
       <c r="I74" t="n">
         <v>10.53944732398951</v>
@@ -4291,16 +4291,16 @@
         <v>30.60511931178456</v>
       </c>
       <c r="K74" t="n">
-        <v>10.48480935229137</v>
+        <v>10.48480935229128</v>
       </c>
       <c r="L74" t="n">
-        <v>30.10368063479926</v>
+        <v>30.10368063479779</v>
       </c>
       <c r="M74" t="n">
-        <v>0.04163737857470809</v>
+        <v>0.04163737857471118</v>
       </c>
       <c r="N74" t="n">
-        <v>0.05500883116690405</v>
+        <v>0.05500883116684053</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003449000000017577</v>
+        <v>0.0001852000000042153</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.884637389738</v>
       </c>
       <c r="F75" t="n">
-        <v>20.02559122614294</v>
+        <v>20.0255912261477</v>
       </c>
       <c r="G75" t="n">
-        <v>114.7455131361997</v>
+        <v>114.7455131361991</v>
       </c>
       <c r="H75" t="n">
-        <v>9.553033791616697</v>
+        <v>9.553033791619768</v>
       </c>
       <c r="I75" t="n">
         <v>42.46365114585801</v>
@@ -4343,16 +4343,16 @@
         <v>16.89259938730791</v>
       </c>
       <c r="K75" t="n">
-        <v>42.46445261519526</v>
+        <v>42.46445261519612</v>
       </c>
       <c r="L75" t="n">
-        <v>17.09462002274743</v>
+        <v>17.09462002275216</v>
       </c>
       <c r="M75" t="n">
-        <v>0.03806751719895352</v>
+        <v>0.03806751719893484</v>
       </c>
       <c r="N75" t="n">
-        <v>0.06726444819614014</v>
+        <v>0.06726444819764577</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003336999999987711</v>
+        <v>0.0002691999999910877</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.8783309012385</v>
       </c>
       <c r="F76" t="n">
-        <v>19.44363359928084</v>
+        <v>19.4436335992821</v>
       </c>
       <c r="G76" t="n">
-        <v>35.83878634769314</v>
+        <v>35.83878634769372</v>
       </c>
       <c r="H76" t="n">
-        <v>12.31246212718326</v>
+        <v>12.31246212718428</v>
       </c>
       <c r="I76" t="n">
         <v>18.81757901229481</v>
@@ -4395,16 +4395,16 @@
         <v>31.03383242832522</v>
       </c>
       <c r="K76" t="n">
-        <v>18.75371811376299</v>
+        <v>18.75371811376316</v>
       </c>
       <c r="L76" t="n">
-        <v>30.41981516319697</v>
+        <v>30.4198151631993</v>
       </c>
       <c r="M76" t="n">
-        <v>0.03861058586672034</v>
+        <v>0.03861058586671436</v>
       </c>
       <c r="N76" t="n">
-        <v>0.08344393238448707</v>
+        <v>0.08344393238410026</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003109000000023343</v>
+        <v>0.0002312999999958265</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.1419004267952209</v>
       </c>
       <c r="F77" t="n">
-        <v>19.7681053936948</v>
+        <v>19.76810539369538</v>
       </c>
       <c r="G77" t="n">
-        <v>110.9502692362754</v>
+        <v>110.9502692362736</v>
       </c>
       <c r="H77" t="n">
-        <v>3.650742621389621</v>
+        <v>3.650742621389803</v>
       </c>
       <c r="I77" t="n">
         <v>18.89077154030081</v>
@@ -4447,16 +4447,16 @@
         <v>17.33986823530514</v>
       </c>
       <c r="K77" t="n">
-        <v>18.8165756873139</v>
+        <v>18.81657568731404</v>
       </c>
       <c r="L77" t="n">
-        <v>16.46522972935782</v>
+        <v>16.4652297293585</v>
       </c>
       <c r="M77" t="n">
-        <v>0.04239487286957781</v>
+        <v>0.04239487286957452</v>
       </c>
       <c r="N77" t="n">
-        <v>0.4089989132279054</v>
+        <v>0.4089989132276409</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002975999999961232</v>
+        <v>0.0001857999999970161</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.8119397378562</v>
       </c>
       <c r="F78" t="n">
-        <v>19.5038426690165</v>
+        <v>19.50384266901712</v>
       </c>
       <c r="G78" t="n">
-        <v>55.08846266114769</v>
+        <v>55.08846266114872</v>
       </c>
       <c r="H78" t="n">
-        <v>12.84995549239129</v>
+        <v>12.8499554923915</v>
       </c>
       <c r="I78" t="n">
         <v>28.16915530266995</v>
@@ -4499,16 +4499,16 @@
         <v>29.4964254447366</v>
       </c>
       <c r="K78" t="n">
-        <v>28.13852579084027</v>
+        <v>28.13852579084039</v>
       </c>
       <c r="L78" t="n">
-        <v>29.15864143519059</v>
+        <v>29.15864143519123</v>
       </c>
       <c r="M78" t="n">
-        <v>0.04215603468653266</v>
+        <v>0.04215603468653109</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0525748251323421</v>
+        <v>0.0525748251322852</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003235000000074706</v>
+        <v>0.0001843000000008033</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.9551110295849</v>
       </c>
       <c r="F79" t="n">
-        <v>19.9027676708937</v>
+        <v>19.90276767089223</v>
       </c>
       <c r="G79" t="n">
-        <v>165.2069907383247</v>
+        <v>165.2069907383257</v>
       </c>
       <c r="H79" t="n">
-        <v>10.61389128065996</v>
+        <v>10.61389128065904</v>
       </c>
       <c r="I79" t="n">
         <v>41.64356557784242</v>
@@ -4551,16 +4551,16 @@
         <v>6.622093328573639</v>
       </c>
       <c r="K79" t="n">
-        <v>41.55249950794244</v>
+        <v>41.55249950794178</v>
       </c>
       <c r="L79" t="n">
-        <v>6.643821478192199</v>
+        <v>6.643821478191528</v>
       </c>
       <c r="M79" t="n">
-        <v>0.04087775859400321</v>
+        <v>0.04087775859401271</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05564003614600221</v>
+        <v>0.05564003614619367</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0002922999999981357</v>
+        <v>0.0002072999999995773</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9755907725551</v>
       </c>
       <c r="F80" t="n">
-        <v>19.78217019057519</v>
+        <v>19.78217019057533</v>
       </c>
       <c r="G80" t="n">
-        <v>8.703323173694432</v>
+        <v>8.703323173694471</v>
       </c>
       <c r="H80" t="n">
-        <v>10.52837451164054</v>
+        <v>10.52837451164089</v>
       </c>
       <c r="I80" t="n">
         <v>5.948030209996284</v>
@@ -4603,16 +4603,16 @@
         <v>30.80205203138767</v>
       </c>
       <c r="K80" t="n">
-        <v>5.917789611820402</v>
+        <v>5.91778961182044</v>
       </c>
       <c r="L80" t="n">
-        <v>29.8132548739297</v>
+        <v>29.81325487393026</v>
       </c>
       <c r="M80" t="n">
-        <v>0.04142034428904438</v>
+        <v>0.04142034428904323</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2057633498345621</v>
+        <v>0.2057633498344459</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.000290200000009122</v>
+        <v>0.0004074999999943429</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0.6632717641540169</v>
       </c>
       <c r="F81" t="n">
-        <v>18.19316387439494</v>
+        <v>18.19316387439353</v>
       </c>
       <c r="G81" t="n">
-        <v>97.60127064327504</v>
+        <v>97.60127064327499</v>
       </c>
       <c r="H81" t="n">
-        <v>6.823304650237942</v>
+        <v>6.823304650237154</v>
       </c>
       <c r="I81" t="n">
         <v>33.54355347503301</v>
@@ -4655,16 +4655,16 @@
         <v>20.83100353070742</v>
       </c>
       <c r="K81" t="n">
-        <v>33.23722232012456</v>
+        <v>33.23722232012425</v>
       </c>
       <c r="L81" t="n">
-        <v>17.32705149825374</v>
+        <v>17.32705149825215</v>
       </c>
       <c r="M81" t="n">
-        <v>0.08396258398295905</v>
+        <v>0.08396258398297352</v>
       </c>
       <c r="N81" t="n">
-        <v>1.064306026202508</v>
+        <v>1.064306026202941</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003066999999958853</v>
+        <v>0.0002385999999887645</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.6200294127704</v>
       </c>
       <c r="F82" t="n">
-        <v>20.13964075946021</v>
+        <v>20.13964075945499</v>
       </c>
       <c r="G82" t="n">
-        <v>92.11844867727056</v>
+        <v>92.1184486772698</v>
       </c>
       <c r="H82" t="n">
-        <v>11.90143479513848</v>
+        <v>11.90143479513448</v>
       </c>
       <c r="I82" t="n">
         <v>42.00785586126269</v>
@@ -4707,16 +4707,16 @@
         <v>22.12910312982312</v>
       </c>
       <c r="K82" t="n">
-        <v>42.01223800294664</v>
+        <v>42.01223800294594</v>
       </c>
       <c r="L82" t="n">
-        <v>22.87329952988862</v>
+        <v>22.87329952988183</v>
       </c>
       <c r="M82" t="n">
-        <v>0.05112612024301245</v>
+        <v>0.05112612024304237</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2144003371864272</v>
+        <v>0.2144003371848799</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003226000000040585</v>
+        <v>0.0001894999999763058</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.2719800684437436</v>
       </c>
       <c r="F83" t="n">
-        <v>19.56595603531368</v>
+        <v>19.56595603531417</v>
       </c>
       <c r="G83" t="n">
-        <v>68.6646175364251</v>
+        <v>68.66461753642352</v>
       </c>
       <c r="H83" t="n">
-        <v>6.182357414128293</v>
+        <v>6.182357414128698</v>
       </c>
       <c r="I83" t="n">
         <v>22.66003708688305</v>
@@ -4759,16 +4759,16 @@
         <v>22.88308841551866</v>
       </c>
       <c r="K83" t="n">
-        <v>22.58714173825933</v>
+        <v>22.58714173825939</v>
       </c>
       <c r="L83" t="n">
-        <v>21.28085738502934</v>
+        <v>21.28085738503028</v>
       </c>
       <c r="M83" t="n">
-        <v>0.04559656638030157</v>
+        <v>0.04559656638029855</v>
       </c>
       <c r="N83" t="n">
-        <v>0.5722506993182659</v>
+        <v>0.5722506993180001</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0002951999999964983</v>
+        <v>0.0001853999999923417</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.8318699194488</v>
       </c>
       <c r="F84" t="n">
-        <v>19.4850928827173</v>
+        <v>19.48509288271785</v>
       </c>
       <c r="G84" t="n">
-        <v>48.2389780709255</v>
+        <v>48.23897807092481</v>
       </c>
       <c r="H84" t="n">
-        <v>10.8281596470786</v>
+        <v>10.82815964707933</v>
       </c>
       <c r="I84" t="n">
         <v>23.0138177326087</v>
@@ -4811,16 +4811,16 @@
         <v>27.91456839119444</v>
       </c>
       <c r="K84" t="n">
-        <v>22.9465736840713</v>
+        <v>22.94657368407134</v>
       </c>
       <c r="L84" t="n">
-        <v>27.71604259376767</v>
+        <v>27.71604259376904</v>
       </c>
       <c r="M84" t="n">
-        <v>0.04619217649017788</v>
+        <v>0.04619217649017329</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09807947192445124</v>
+        <v>0.09807947192455183</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.00031219999999621</v>
+        <v>0.0001849000000220258</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.8301374227926</v>
       </c>
       <c r="F85" t="n">
-        <v>19.37631916222627</v>
+        <v>19.37631916222221</v>
       </c>
       <c r="G85" t="n">
-        <v>45.15790638390855</v>
+        <v>45.15790638390737</v>
       </c>
       <c r="H85" t="n">
-        <v>11.24672541659133</v>
+        <v>11.246725416588</v>
       </c>
       <c r="I85" t="n">
         <v>22.19829023105142</v>
@@ -4863,16 +4863,16 @@
         <v>28.81480572929693</v>
       </c>
       <c r="K85" t="n">
-        <v>22.12353852252264</v>
+        <v>22.12353852252206</v>
       </c>
       <c r="L85" t="n">
-        <v>28.36510711526701</v>
+        <v>28.3651071152597</v>
       </c>
       <c r="M85" t="n">
-        <v>0.04344696300101784</v>
+        <v>0.04344696300104073</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08165060134384747</v>
+        <v>0.08165060134370081</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003170000000096707</v>
+        <v>0.0003874999999879947</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.02632244039511911</v>
       </c>
       <c r="F86" t="n">
-        <v>19.65076473577516</v>
+        <v>19.65076473577554</v>
       </c>
       <c r="G86" t="n">
-        <v>7.784406563280093</v>
+        <v>7.784406563280526</v>
       </c>
       <c r="H86" t="n">
-        <v>7.339974445691137</v>
+        <v>7.33997444569102</v>
       </c>
       <c r="I86" t="n">
         <v>5.354793513653481</v>
@@ -4915,16 +4915,16 @@
         <v>26.33679661486171</v>
       </c>
       <c r="K86" t="n">
-        <v>5.261829264236014</v>
+        <v>5.261829264236078</v>
       </c>
       <c r="L86" t="n">
-        <v>25.87021850329482</v>
+        <v>25.87021850329506</v>
       </c>
       <c r="M86" t="n">
-        <v>0.04580563439779067</v>
+        <v>0.0458056343977894</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0999160523045298</v>
+        <v>0.09991605230452927</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003039999999998599</v>
+        <v>0.0002345000000048003</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9646298557842</v>
       </c>
       <c r="F87" t="n">
-        <v>19.68543945744413</v>
+        <v>19.685439457439</v>
       </c>
       <c r="G87" t="n">
-        <v>111.2516750236695</v>
+        <v>111.2516750236697</v>
       </c>
       <c r="H87" t="n">
-        <v>8.938842667596695</v>
+        <v>8.938842667593502</v>
       </c>
       <c r="I87" t="n">
         <v>40.31703926566036</v>
@@ -4967,16 +4967,16 @@
         <v>17.50678391245108</v>
       </c>
       <c r="K87" t="n">
-        <v>40.24213057379495</v>
+        <v>40.24213057379397</v>
       </c>
       <c r="L87" t="n">
-        <v>17.26802417950464</v>
+        <v>17.26802417949946</v>
       </c>
       <c r="M87" t="n">
-        <v>0.04201725034889701</v>
+        <v>0.04201725034892041</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09812692854782831</v>
+        <v>0.09812692854944294</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003092999999978474</v>
+        <v>0.0001958000000001903</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.1192571437934559</v>
       </c>
       <c r="F88" t="n">
-        <v>19.74890074556814</v>
+        <v>19.74890074556908</v>
       </c>
       <c r="G88" t="n">
-        <v>39.73219117167528</v>
+        <v>39.73219117167702</v>
       </c>
       <c r="H88" t="n">
-        <v>4.632997043820598</v>
+        <v>4.632997043820831</v>
       </c>
       <c r="I88" t="n">
         <v>12.63355933516389</v>
@@ -5019,16 +5019,16 @@
         <v>23.239492303837</v>
       </c>
       <c r="K88" t="n">
-        <v>12.54897878621145</v>
+        <v>12.54897878621164</v>
       </c>
       <c r="L88" t="n">
-        <v>21.93199208306487</v>
+        <v>21.93199208306595</v>
       </c>
       <c r="M88" t="n">
-        <v>0.04276859320051961</v>
+        <v>0.04276859320051563</v>
       </c>
       <c r="N88" t="n">
-        <v>0.5848669183550674</v>
+        <v>0.584866918354885</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003226999999981217</v>
+        <v>0.0001842000000067401</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.9255248958294</v>
       </c>
       <c r="F89" t="n">
-        <v>19.60659311097226</v>
+        <v>19.60659311097981</v>
       </c>
       <c r="G89" t="n">
-        <v>117.9104007738477</v>
+        <v>117.9104007738486</v>
       </c>
       <c r="H89" t="n">
-        <v>14.1453417435512</v>
+        <v>14.14534174355797</v>
       </c>
       <c r="I89" t="n">
         <v>60.8050478197775</v>
@@ -5071,16 +5071,16 @@
         <v>18.86895112245551</v>
       </c>
       <c r="K89" t="n">
-        <v>60.7417205736869</v>
+        <v>60.74172057368801</v>
       </c>
       <c r="L89" t="n">
-        <v>18.50579674516003</v>
+        <v>18.50579674516791</v>
       </c>
       <c r="M89" t="n">
-        <v>0.04245072206429285</v>
+        <v>0.04245072206425982</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1075388376059778</v>
+        <v>0.1075388376038139</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003072000000088337</v>
+        <v>0.0001862999999957538</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9786231391697</v>
       </c>
       <c r="F90" t="n">
-        <v>19.82421624583057</v>
+        <v>19.82421624583311</v>
       </c>
       <c r="G90" t="n">
-        <v>116.4220208954145</v>
+        <v>116.422020895415</v>
       </c>
       <c r="H90" t="n">
-        <v>8.983286615981466</v>
+        <v>8.983286615983026</v>
       </c>
       <c r="I90" t="n">
         <v>41.12816029319166</v>
@@ -5123,16 +5123,16 @@
         <v>16.60650249154164</v>
       </c>
       <c r="K90" t="n">
-        <v>41.07412222362389</v>
+        <v>41.07412222362446</v>
       </c>
       <c r="L90" t="n">
-        <v>16.46326341043222</v>
+        <v>16.46326341043453</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04081242112649212</v>
+        <v>0.04081242112648119</v>
       </c>
       <c r="N90" t="n">
-        <v>0.05952053480165198</v>
+        <v>0.05952053480083795</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003028999999941107</v>
+        <v>0.0003061000000172953</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.3387460053094221</v>
       </c>
       <c r="F91" t="n">
-        <v>19.24116323090765</v>
+        <v>19.24116323090852</v>
       </c>
       <c r="G91" t="n">
-        <v>97.61531575015525</v>
+        <v>97.61531575015363</v>
       </c>
       <c r="H91" t="n">
-        <v>5.322090162185257</v>
+        <v>5.32209016218568</v>
       </c>
       <c r="I91" t="n">
         <v>25.93067114680046</v>
@@ -5175,16 +5175,16 @@
         <v>19.33745493689766</v>
       </c>
       <c r="K91" t="n">
-        <v>25.76158318463266</v>
+        <v>25.76158318463284</v>
       </c>
       <c r="L91" t="n">
-        <v>17.51935792658826</v>
+        <v>17.51935792658937</v>
       </c>
       <c r="M91" t="n">
-        <v>0.05035086443677647</v>
+        <v>0.0503508644367706</v>
       </c>
       <c r="N91" t="n">
-        <v>0.6992146063610952</v>
+        <v>0.6992146063607421</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003106000000059339</v>
+        <v>0.0002338000000179363</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.04489733363986508</v>
       </c>
       <c r="F92" t="n">
-        <v>19.58087680714657</v>
+        <v>19.5808768071467</v>
       </c>
       <c r="G92" t="n">
-        <v>27.74819120446994</v>
+        <v>27.74819120446801</v>
       </c>
       <c r="H92" t="n">
-        <v>4.482312114812099</v>
+        <v>4.482312114812673</v>
       </c>
       <c r="I92" t="n">
         <v>9.760627286571122</v>
@@ -5227,16 +5227,16 @@
         <v>22.92041397631485</v>
       </c>
       <c r="K92" t="n">
-        <v>9.640042396918542</v>
+        <v>9.640042396918593</v>
       </c>
       <c r="L92" t="n">
-        <v>22.03589986396496</v>
+        <v>22.03589986396581</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0441671227381779</v>
+        <v>0.04416712273817583</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3088978657841722</v>
+        <v>0.3088978657837546</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.000321299999995972</v>
+        <v>0.0002058999999974276</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.1212242035469481</v>
       </c>
       <c r="F93" t="n">
-        <v>19.58201097925016</v>
+        <v>19.58201097925082</v>
       </c>
       <c r="G93" t="n">
-        <v>37.97160207893727</v>
+        <v>37.97160207893749</v>
       </c>
       <c r="H93" t="n">
-        <v>6.07598021353885</v>
+        <v>6.07598021353923</v>
       </c>
       <c r="I93" t="n">
         <v>14.17967145141647</v>
@@ -5279,16 +5279,16 @@
         <v>24.87142509426831</v>
       </c>
       <c r="K93" t="n">
-        <v>14.08275486049071</v>
+        <v>14.08275486049084</v>
       </c>
       <c r="L93" t="n">
-        <v>23.41714963613903</v>
+        <v>23.41714963614008</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04033599611089506</v>
+        <v>0.04033599611089215</v>
       </c>
       <c r="N93" t="n">
-        <v>0.4802996652076281</v>
+        <v>0.4802996652073981</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003023000000013099</v>
+        <v>0.0001927000000137014</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.9539401516435</v>
       </c>
       <c r="F94" t="n">
-        <v>19.84632014678093</v>
+        <v>19.84632014676506</v>
       </c>
       <c r="G94" t="n">
-        <v>159.4098981253204</v>
+        <v>159.4098981253288</v>
       </c>
       <c r="H94" t="n">
-        <v>12.35004219437145</v>
+        <v>12.35004219435946</v>
       </c>
       <c r="I94" t="n">
         <v>62.23454606395273</v>
@@ -5331,16 +5331,16 @@
         <v>7.253282679324334</v>
       </c>
       <c r="K94" t="n">
-        <v>62.20020057559827</v>
+        <v>62.20020057559427</v>
       </c>
       <c r="L94" t="n">
-        <v>7.197082736578101</v>
+        <v>7.197082736570359</v>
       </c>
       <c r="M94" t="n">
-        <v>0.03678755288712365</v>
+        <v>0.03678755288717939</v>
       </c>
       <c r="N94" t="n">
-        <v>0.04536926334140069</v>
+        <v>0.04536926334637875</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002960000000058471</v>
+        <v>0.000182399999999916</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.6739603839313</v>
       </c>
       <c r="F95" t="n">
-        <v>20.15482813876562</v>
+        <v>20.15482813876571</v>
       </c>
       <c r="G95" t="n">
-        <v>107.1087081634818</v>
+        <v>107.1087081634809</v>
       </c>
       <c r="H95" t="n">
-        <v>11.26753011453688</v>
+        <v>11.26753011453701</v>
       </c>
       <c r="I95" t="n">
         <v>45.89953068680607</v>
@@ -5383,16 +5383,16 @@
         <v>18.82125777249706</v>
       </c>
       <c r="K95" t="n">
-        <v>45.86965360176971</v>
+        <v>45.86965360176961</v>
       </c>
       <c r="L95" t="n">
-        <v>19.47519847806114</v>
+        <v>19.47519847806146</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04559756338012565</v>
+        <v>0.04559756338012486</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2028900902791517</v>
+        <v>0.2028900902792541</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003170000000096707</v>
+        <v>0.0003609000000039941</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.8513093568973</v>
       </c>
       <c r="F96" t="n">
-        <v>19.95484123510017</v>
+        <v>19.95484123509355</v>
       </c>
       <c r="G96" t="n">
-        <v>128.3678893303359</v>
+        <v>128.3678893303377</v>
       </c>
       <c r="H96" t="n">
-        <v>10.30402298746902</v>
+        <v>10.30402298746451</v>
       </c>
       <c r="I96" t="n">
         <v>48.29065171913467</v>
@@ -5435,16 +5435,16 @@
         <v>14.32873211053184</v>
       </c>
       <c r="K96" t="n">
-        <v>48.21373563557577</v>
+        <v>48.2137356355745</v>
       </c>
       <c r="L96" t="n">
-        <v>14.50199465367844</v>
+        <v>14.50199465367272</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04277866556836998</v>
+        <v>0.0427786655683977</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07164231966675161</v>
+        <v>0.0716423196652626</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.000320500000000834</v>
+        <v>0.0002222999999901276</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.1328577799104965</v>
       </c>
       <c r="F97" t="n">
-        <v>19.7557576643045</v>
+        <v>19.75575766430405</v>
       </c>
       <c r="G97" t="n">
-        <v>44.22589295370238</v>
+        <v>44.22589295370351</v>
       </c>
       <c r="H97" t="n">
-        <v>4.578716120392219</v>
+        <v>4.578716120391842</v>
       </c>
       <c r="I97" t="n">
         <v>13.57118462144919</v>
@@ -5487,16 +5487,16 @@
         <v>22.79599817688023</v>
       </c>
       <c r="K97" t="n">
-        <v>13.47052456188995</v>
+        <v>13.47052456188986</v>
       </c>
       <c r="L97" t="n">
-        <v>21.67286988868161</v>
+        <v>21.67286988868073</v>
       </c>
       <c r="M97" t="n">
-        <v>0.04029829633398913</v>
+        <v>0.0402982963339915</v>
       </c>
       <c r="N97" t="n">
-        <v>0.5187430587696196</v>
+        <v>0.5187430587699118</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002960999999999103</v>
+        <v>0.0001895000000047276</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.9860304450468</v>
       </c>
       <c r="F98" t="n">
-        <v>19.36328821084187</v>
+        <v>19.36328821084484</v>
       </c>
       <c r="G98" t="n">
-        <v>38.45489297217638</v>
+        <v>38.45489297217726</v>
       </c>
       <c r="H98" t="n">
-        <v>13.33420024046209</v>
+        <v>13.33420024046492</v>
       </c>
       <c r="I98" t="n">
         <v>20.86576132904595</v>
@@ -5539,16 +5539,16 @@
         <v>32.55998288646593</v>
       </c>
       <c r="K98" t="n">
-        <v>20.79204238623774</v>
+        <v>20.79204238623814</v>
       </c>
       <c r="L98" t="n">
-        <v>31.3168158288667</v>
+        <v>31.31681582887263</v>
       </c>
       <c r="M98" t="n">
-        <v>0.04045159589105018</v>
+        <v>0.04045159589103535</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1909636298243372</v>
+        <v>0.1909636298234028</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003451999999981581</v>
+        <v>0.0001869999999826177</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.3502375502584012</v>
       </c>
       <c r="F99" t="n">
-        <v>17.43978419825199</v>
+        <v>17.43978419823779</v>
       </c>
       <c r="G99" t="n">
-        <v>152.7155317138049</v>
+        <v>152.715531713811</v>
       </c>
       <c r="H99" t="n">
-        <v>12.28822891473611</v>
+        <v>12.28822891472345</v>
       </c>
       <c r="I99" t="n">
         <v>78.06587627245798</v>
@@ -5591,16 +5591,16 @@
         <v>9.999091878929827</v>
       </c>
       <c r="K99" t="n">
-        <v>77.93472303536402</v>
+        <v>77.93472303536149</v>
       </c>
       <c r="L99" t="n">
-        <v>8.218235990357918</v>
+        <v>8.218235990349363</v>
       </c>
       <c r="M99" t="n">
-        <v>0.04999245781211544</v>
+        <v>0.04999245781225121</v>
       </c>
       <c r="N99" t="n">
-        <v>0.783270154528356</v>
+        <v>0.7832701545327272</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.00029750000000206</v>
+        <v>0.0001818000000071152</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.9052565837468</v>
       </c>
       <c r="F100" t="n">
-        <v>19.74204764876325</v>
+        <v>19.74204764874576</v>
       </c>
       <c r="G100" t="n">
-        <v>131.2049243504084</v>
+        <v>131.2049243504152</v>
       </c>
       <c r="H100" t="n">
-        <v>9.661889335070121</v>
+        <v>9.661889335058733</v>
       </c>
       <c r="I100" t="n">
         <v>46.1844939913889</v>
@@ -5643,16 +5643,16 @@
         <v>13.77788699865662</v>
       </c>
       <c r="K100" t="n">
-        <v>46.10429371305754</v>
+        <v>46.10429371305387</v>
       </c>
       <c r="L100" t="n">
-        <v>13.6841660783234</v>
+        <v>13.68416607830877</v>
       </c>
       <c r="M100" t="n">
-        <v>0.04648219603501971</v>
+        <v>0.04648219603509746</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08327449207419449</v>
+        <v>0.08327449207961568</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002915999999970609</v>
+        <v>0.0003063999999994849</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.0284717685403868</v>
       </c>
       <c r="F101" t="n">
-        <v>19.58028745674537</v>
+        <v>19.58028745674305</v>
       </c>
       <c r="G101" t="n">
-        <v>121.594921258697</v>
+        <v>121.5949212586975</v>
       </c>
       <c r="H101" t="n">
-        <v>8.588580198489982</v>
+        <v>8.588580198488582</v>
       </c>
       <c r="I101" t="n">
         <v>40.8027694413413</v>
@@ -5695,16 +5695,16 @@
         <v>15.73131543785253</v>
       </c>
       <c r="K101" t="n">
-        <v>40.73388594503763</v>
+        <v>40.73388594503712</v>
       </c>
       <c r="L101" t="n">
-        <v>15.26145696425327</v>
+        <v>15.26145696425117</v>
       </c>
       <c r="M101" t="n">
-        <v>0.04006336521823192</v>
+        <v>0.04006336521824294</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1573685891484732</v>
+        <v>0.1573685891492302</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002918999999934613</v>
+        <v>0.0002313999999898897</v>
       </c>
     </row>
   </sheetData>
